--- a/kanji_n1.xlsx
+++ b/kanji_n1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Project_01\Luyende_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0884B84F-5E0C-44F1-AFAC-28A67CAB863D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5784B2-942E-4117-8016-F756BE568301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{99E12D5B-8E1D-41F0-A484-964DAB65E428}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="2030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="2386">
   <si>
     <t>Nghĩa Hán tự (Hán Việt)</t>
   </si>
@@ -10281,6 +10281,1934 @@
         <scheme val="minor"/>
       </rPr>
       <t>ới thông tin</t>
+    </r>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>磨</t>
+  </si>
+  <si>
+    <t>みがく</t>
+  </si>
+  <si>
+    <t>mài, đánh bóng</t>
+  </si>
+  <si>
+    <t>磨く</t>
+  </si>
+  <si>
+    <t>mài, đánh (răng), đánh bóng</t>
+  </si>
+  <si>
+    <t>磨かない</t>
+  </si>
+  <si>
+    <t>みがかない</t>
+  </si>
+  <si>
+    <t>không mài, không đánh (răng)</t>
+  </si>
+  <si>
+    <t>Xỉ ma phấn</t>
+  </si>
+  <si>
+    <t>歯磨き粉</t>
+  </si>
+  <si>
+    <t>はみがきこ</t>
+  </si>
+  <si>
+    <t>kem đánh răng</t>
+  </si>
+  <si>
+    <t>Thiết tỏa trác ma</t>
+  </si>
+  <si>
+    <t>切磋琢磨する</t>
+  </si>
+  <si>
+    <t>せっさたくまする</t>
+  </si>
+  <si>
+    <t>cùng nhau rèn luyện, học hỏi lẫn nhau</t>
+  </si>
+  <si>
+    <t>魔</t>
+  </si>
+  <si>
+    <t>ま</t>
+  </si>
+  <si>
+    <t>ma quỷ, yêu ma</t>
+  </si>
+  <si>
+    <t>Ác ma</t>
+  </si>
+  <si>
+    <t>悪魔</t>
+  </si>
+  <si>
+    <t>あくま</t>
+  </si>
+  <si>
+    <t>ác quỷ</t>
+  </si>
+  <si>
+    <t>Ma pháp</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>まほう</t>
+  </si>
+  <si>
+    <t>ma thuật, phép thuật</t>
+  </si>
+  <si>
+    <t>Tà ma</t>
+  </si>
+  <si>
+    <t>邪魔</t>
+  </si>
+  <si>
+    <t>じゃま</t>
+  </si>
+  <si>
+    <t>cản trở, phiền phức</t>
+  </si>
+  <si>
+    <t>Thụy ma</t>
+  </si>
+  <si>
+    <t>睡魔</t>
+  </si>
+  <si>
+    <t>すいま</t>
+  </si>
+  <si>
+    <t>摩</t>
+  </si>
+  <si>
+    <t>ma sát</t>
+  </si>
+  <si>
+    <t>Lịch</t>
+  </si>
+  <si>
+    <t>暦</t>
+  </si>
+  <si>
+    <t>こよみ</t>
+  </si>
+  <si>
+    <t>lịch, niên lịch</t>
+  </si>
+  <si>
+    <t>Tây lịch</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>せいれき</t>
+  </si>
+  <si>
+    <t>Hoàn lịch</t>
+  </si>
+  <si>
+    <t>還暦</t>
+  </si>
+  <si>
+    <t>かんれき</t>
+  </si>
+  <si>
+    <t>mừng thọ 60 tuổi</t>
+  </si>
+  <si>
+    <t>Hủ</t>
+  </si>
+  <si>
+    <t>腐</t>
+  </si>
+  <si>
+    <t>くさる</t>
+  </si>
+  <si>
+    <t>腐る</t>
+  </si>
+  <si>
+    <t>thối, hỏng, mục nát</t>
+  </si>
+  <si>
+    <t>Hủ bại</t>
+  </si>
+  <si>
+    <t>腐敗</t>
+  </si>
+  <si>
+    <t>ふはい</t>
+  </si>
+  <si>
+    <t>mục nát, thối rữa, suy đồi</t>
+  </si>
+  <si>
+    <t>Hủ thực</t>
+  </si>
+  <si>
+    <t>腐食する</t>
+  </si>
+  <si>
+    <t>ふしょくする</t>
+  </si>
+  <si>
+    <t>ăn mòn, bào mòn</t>
+  </si>
+  <si>
+    <t>Trần hủ</t>
+  </si>
+  <si>
+    <t>陳腐な</t>
+  </si>
+  <si>
+    <t>ちんぷな</t>
+  </si>
+  <si>
+    <t>cũ rích, sáo mòn</t>
+  </si>
+  <si>
+    <t>Đậu hủ</t>
+  </si>
+  <si>
+    <t>豆腐</t>
+  </si>
+  <si>
+    <t>とうふ</t>
+  </si>
+  <si>
+    <t>đậu hũ, đậu phụ</t>
+  </si>
+  <si>
+    <t>Phế</t>
+  </si>
+  <si>
+    <t>廃れた</t>
+  </si>
+  <si>
+    <t>すたれた</t>
+  </si>
+  <si>
+    <t>bị phế bỏ, lỗi thời</t>
+  </si>
+  <si>
+    <t>廃る</t>
+  </si>
+  <si>
+    <t>すたる</t>
+  </si>
+  <si>
+    <t>bị bỏ, lỗi thời</t>
+  </si>
+  <si>
+    <t>Hoang phế</t>
+  </si>
+  <si>
+    <t>荒廃する</t>
+  </si>
+  <si>
+    <t>こうはいする</t>
+  </si>
+  <si>
+    <t>hoang tàn, đổ nát</t>
+  </si>
+  <si>
+    <t>Phế chỉ</t>
+  </si>
+  <si>
+    <t>廃止する</t>
+  </si>
+  <si>
+    <t>はいしする</t>
+  </si>
+  <si>
+    <t>bãi bỏ, hủy bỏ</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>薦められて</t>
+  </si>
+  <si>
+    <t>すすめられて</t>
+  </si>
+  <si>
+    <t>Tiến cử</t>
+  </si>
+  <si>
+    <t>推薦</t>
+  </si>
+  <si>
+    <t>すいせん</t>
+  </si>
+  <si>
+    <t>tiến cử, giới thiệu</t>
+  </si>
+  <si>
+    <t>Khánh</t>
+  </si>
+  <si>
+    <t>慶事</t>
+  </si>
+  <si>
+    <t>けいじ</t>
+  </si>
+  <si>
+    <t>sự kiện vui, việc hỉ</t>
+  </si>
+  <si>
+    <t>慶弔休暇</t>
+  </si>
+  <si>
+    <t>けいちょうきゅうか</t>
+  </si>
+  <si>
+    <t>Lự</t>
+  </si>
+  <si>
+    <t>遠慮</t>
+  </si>
+  <si>
+    <t>えんりょ</t>
+  </si>
+  <si>
+    <t>ngần ngại, khách sáo</t>
+  </si>
+  <si>
+    <t>Khảo lự</t>
+  </si>
+  <si>
+    <t>考慮</t>
+  </si>
+  <si>
+    <t>こうりょ</t>
+  </si>
+  <si>
+    <t>xem xét, cân nhắc</t>
+  </si>
+  <si>
+    <t>Phối lự</t>
+  </si>
+  <si>
+    <t>配慮</t>
+  </si>
+  <si>
+    <t>はいりょ</t>
+  </si>
+  <si>
+    <t>Bất lự</t>
+  </si>
+  <si>
+    <t>不慮</t>
+  </si>
+  <si>
+    <t>ふりょ</t>
+  </si>
+  <si>
+    <t>bất ngờ, ngoài ý muốn</t>
+  </si>
+  <si>
+    <t>Phu</t>
+  </si>
+  <si>
+    <t>皮膚</t>
+  </si>
+  <si>
+    <t>ひふ</t>
+  </si>
+  <si>
+    <t>da, bì phu</t>
+  </si>
+  <si>
+    <t>Phu khoa</t>
+  </si>
+  <si>
+    <t>皮膚科</t>
+  </si>
+  <si>
+    <t>ひふか</t>
+  </si>
+  <si>
+    <t>khoa da liễu</t>
+  </si>
+  <si>
+    <t>児童虐待</t>
+  </si>
+  <si>
+    <t>じどうぎゃくたい</t>
+  </si>
+  <si>
+    <t>動物虐待</t>
+  </si>
+  <si>
+    <t>どうぶつぎゃくたい</t>
+  </si>
+  <si>
+    <t>虐殺</t>
+  </si>
+  <si>
+    <t>ぎゃくさつ</t>
+  </si>
+  <si>
+    <t>thảm sát, tàn sát</t>
+  </si>
+  <si>
+    <t>空虚な</t>
+  </si>
+  <si>
+    <t>くうきょな</t>
+  </si>
+  <si>
+    <t>trống rỗng</t>
+  </si>
+  <si>
+    <t>虚偽</t>
+  </si>
+  <si>
+    <t>きょぎ</t>
+  </si>
+  <si>
+    <t>虚空</t>
+  </si>
+  <si>
+    <t>こくう</t>
+  </si>
+  <si>
+    <t>không gian trống rỗng</t>
+  </si>
+  <si>
+    <t>Nha</t>
+  </si>
+  <si>
+    <t>ライオンの牙</t>
+  </si>
+  <si>
+    <t>らいおんのきば</t>
+  </si>
+  <si>
+    <t>象牙</t>
+  </si>
+  <si>
+    <t>ぞうげ</t>
+  </si>
+  <si>
+    <t>ngà voi</t>
+  </si>
+  <si>
+    <t>Nhã</t>
+  </si>
+  <si>
+    <t>優雅</t>
+  </si>
+  <si>
+    <t>ゆうが</t>
+  </si>
+  <si>
+    <t>thanh nhã, tao nhã</t>
+  </si>
+  <si>
+    <t>Tà</t>
+  </si>
+  <si>
+    <t>邪悪</t>
+  </si>
+  <si>
+    <t>じゃあく</t>
+  </si>
+  <si>
+    <t>xấu xa, ác độc</t>
+  </si>
+  <si>
+    <t>cản trở, gây phiền</t>
+  </si>
+  <si>
+    <t>Vô tà khí</t>
+  </si>
+  <si>
+    <t>無邪気な</t>
+  </si>
+  <si>
+    <t>むじゃきな</t>
+  </si>
+  <si>
+    <t>Xin phép vào nhà</t>
+  </si>
+  <si>
+    <t>お邪魔します</t>
+  </si>
+  <si>
+    <t>おじゃまします</t>
+  </si>
+  <si>
+    <t>xin phép làm phiền</t>
+  </si>
+  <si>
+    <t>芽</t>
+  </si>
+  <si>
+    <t>め</t>
+  </si>
+  <si>
+    <t>mầm, chồi</t>
+  </si>
+  <si>
+    <t>Nha sinh</t>
+  </si>
+  <si>
+    <t>芽生える</t>
+  </si>
+  <si>
+    <t>めばえる</t>
+  </si>
+  <si>
+    <t>nảy mầm, nảy sinh</t>
+  </si>
+  <si>
+    <t>Phát nha</t>
+  </si>
+  <si>
+    <t>発芽する</t>
+  </si>
+  <si>
+    <t>はつがする</t>
+  </si>
+  <si>
+    <t>nảy mầm</t>
+  </si>
+  <si>
+    <t>Ký</t>
+  </si>
+  <si>
+    <t>既に</t>
+  </si>
+  <si>
+    <t>すでに</t>
+  </si>
+  <si>
+    <t>đã, rồi</t>
+  </si>
+  <si>
+    <t>Ký hôn</t>
+  </si>
+  <si>
+    <t>既婚</t>
+  </si>
+  <si>
+    <t>きこん</t>
+  </si>
+  <si>
+    <t>đã kết hôn</t>
+  </si>
+  <si>
+    <t>Ký thành</t>
+  </si>
+  <si>
+    <t>既成</t>
+  </si>
+  <si>
+    <t>きせい</t>
+  </si>
+  <si>
+    <t>có sẵn, đã thành lập</t>
+  </si>
+  <si>
+    <t>Khái</t>
+  </si>
+  <si>
+    <t>感慨深い</t>
+  </si>
+  <si>
+    <t>かんがいぶかい</t>
+  </si>
+  <si>
+    <t>xúc động sâu sắc</t>
+  </si>
+  <si>
+    <t>Phẫn khái</t>
+  </si>
+  <si>
+    <t>憤慨する</t>
+  </si>
+  <si>
+    <t>ふんがいする</t>
+  </si>
+  <si>
+    <t>phẫn nộ, bức xúc</t>
+  </si>
+  <si>
+    <t>大概</t>
+  </si>
+  <si>
+    <t>たいがい</t>
+  </si>
+  <si>
+    <t>đại khái, phần lớn</t>
+  </si>
+  <si>
+    <t>Ký thành khái niệm</t>
+  </si>
+  <si>
+    <t>既成概念</t>
+  </si>
+  <si>
+    <t>きせいがいねん</t>
+  </si>
+  <si>
+    <t>định kiến có sẵn</t>
+  </si>
+  <si>
+    <t>Nhất khái</t>
+  </si>
+  <si>
+    <t>一概</t>
+  </si>
+  <si>
+    <t>いちがい</t>
+  </si>
+  <si>
+    <t>cứ, nhất loạt</t>
+  </si>
+  <si>
+    <t>Phạp</t>
+  </si>
+  <si>
+    <t>乏しい</t>
+  </si>
+  <si>
+    <t>とぼしい</t>
+  </si>
+  <si>
+    <t>nghèo nàn, thiếu thốn</t>
+  </si>
+  <si>
+    <t>Bần phạp</t>
+  </si>
+  <si>
+    <t>貧乏な</t>
+  </si>
+  <si>
+    <t>びんぼうな</t>
+  </si>
+  <si>
+    <t>nghèo</t>
+  </si>
+  <si>
+    <t>Khiếm phạp</t>
+  </si>
+  <si>
+    <t>欠乏する</t>
+  </si>
+  <si>
+    <t>けつぼうする</t>
+  </si>
+  <si>
+    <t>thiếu hụt, khan hiếm</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>芝</t>
+  </si>
+  <si>
+    <t>しば</t>
+  </si>
+  <si>
+    <t>cỏ, thảm cỏ</t>
+  </si>
+  <si>
+    <t>Chi sinh</t>
+  </si>
+  <si>
+    <t>芝生</t>
+  </si>
+  <si>
+    <t>しばふ</t>
+  </si>
+  <si>
+    <t>bãi cỏ, thảm cỏ</t>
+  </si>
+  <si>
+    <t>芝居</t>
+  </si>
+  <si>
+    <t>しばい</t>
+  </si>
+  <si>
+    <t>kịch, biểu diễn</t>
+  </si>
+  <si>
+    <t>Nhân công chi</t>
+  </si>
+  <si>
+    <t>人工芝</t>
+  </si>
+  <si>
+    <t>じんこうしば</t>
+  </si>
+  <si>
+    <t>cỏ nhân tạo</t>
+  </si>
+  <si>
+    <t>Mậu</t>
+  </si>
+  <si>
+    <t>茂る</t>
+  </si>
+  <si>
+    <t>しげる</t>
+  </si>
+  <si>
+    <t>rậm rạp, um tùm</t>
+  </si>
+  <si>
+    <t>Vụ</t>
+  </si>
+  <si>
+    <t>霧</t>
+  </si>
+  <si>
+    <t>きり</t>
+  </si>
+  <si>
+    <t>Nồng vụ</t>
+  </si>
+  <si>
+    <t>濃霧</t>
+  </si>
+  <si>
+    <t>のうむ</t>
+  </si>
+  <si>
+    <t>霜</t>
+  </si>
+  <si>
+    <t>しも</t>
+  </si>
+  <si>
+    <t>窓霜</t>
+  </si>
+  <si>
+    <t>まどしも</t>
+  </si>
+  <si>
+    <t>霜柱</t>
+  </si>
+  <si>
+    <t>しもばしら</t>
+  </si>
+  <si>
+    <t>Lộ</t>
+  </si>
+  <si>
+    <t>露</t>
+  </si>
+  <si>
+    <t>つゆ</t>
+  </si>
+  <si>
+    <t>Lộ xuất</t>
+  </si>
+  <si>
+    <t>露出</t>
+  </si>
+  <si>
+    <t>ろしゅつ</t>
+  </si>
+  <si>
+    <t>Bạo lộ</t>
+  </si>
+  <si>
+    <t>暴露</t>
+  </si>
+  <si>
+    <t>ばくろ</t>
+  </si>
+  <si>
+    <t>Lộ cốt</t>
+  </si>
+  <si>
+    <t>露骨</t>
+  </si>
+  <si>
+    <t>ろこつ</t>
+  </si>
+  <si>
+    <t>lộ liễu, thẳng thừng</t>
+  </si>
+  <si>
+    <t>Kết hôn披露宴</t>
+  </si>
+  <si>
+    <t>結婚披露宴</t>
+  </si>
+  <si>
+    <t>けっこんひろうえん</t>
+  </si>
+  <si>
+    <t>Đàm</t>
+  </si>
+  <si>
+    <t>曇り</t>
+  </si>
+  <si>
+    <t>くもり</t>
+  </si>
+  <si>
+    <t>trời nhiều mây</t>
+  </si>
+  <si>
+    <t>曇る</t>
+  </si>
+  <si>
+    <t>くもる</t>
+  </si>
+  <si>
+    <t>trở nên nhiều mây</t>
+  </si>
+  <si>
+    <t>Đàm thiên</t>
+  </si>
+  <si>
+    <t>曇天</t>
+  </si>
+  <si>
+    <t>どんてん</t>
+  </si>
+  <si>
+    <t>trời âm u</t>
+  </si>
+  <si>
+    <t>雰囲気</t>
+  </si>
+  <si>
+    <t>ふんいき</t>
+  </si>
+  <si>
+    <t>bầu không khí</t>
+  </si>
+  <si>
+    <t>Lậu</t>
+  </si>
+  <si>
+    <t>雨漏りがひどい</t>
+  </si>
+  <si>
+    <t>あまもりがひどい</t>
+  </si>
+  <si>
+    <t>漏れる</t>
+  </si>
+  <si>
+    <t>もれる</t>
+  </si>
+  <si>
+    <t>rò rỉ, lọt ra ngoài</t>
+  </si>
+  <si>
+    <t>漏らす</t>
+  </si>
+  <si>
+    <t>もらす</t>
+  </si>
+  <si>
+    <t>làm rò rỉ, để lộ ra</t>
+  </si>
+  <si>
+    <t>Lậu tiết</t>
+  </si>
+  <si>
+    <t>漏洩</t>
+  </si>
+  <si>
+    <t>ろうえい</t>
+  </si>
+  <si>
+    <t>rò rỉ, lộ (thông tin)</t>
+  </si>
+  <si>
+    <t>Chu</t>
+  </si>
+  <si>
+    <t>朱色</t>
+  </si>
+  <si>
+    <t>しゅいろ</t>
+  </si>
+  <si>
+    <t>màu đỏ son</t>
+  </si>
+  <si>
+    <t>Chu đồ</t>
+  </si>
+  <si>
+    <t>朱塗り</t>
+  </si>
+  <si>
+    <t>しゅぬり</t>
+  </si>
+  <si>
+    <t>Chu nhục</t>
+  </si>
+  <si>
+    <t>朱肉</t>
+  </si>
+  <si>
+    <t>しゅにく</t>
+  </si>
+  <si>
+    <t>mực đỏ (đóng dấu)</t>
+  </si>
+  <si>
+    <t>Thù</t>
+  </si>
+  <si>
+    <t>特殊な</t>
+  </si>
+  <si>
+    <t>とくしゅな</t>
+  </si>
+  <si>
+    <t>đặc biệt</t>
+  </si>
+  <si>
+    <t>殊に</t>
+  </si>
+  <si>
+    <t>ことに</t>
+  </si>
+  <si>
+    <t>đặc biệt là, nhất là</t>
+  </si>
+  <si>
+    <t>苗</t>
+  </si>
+  <si>
+    <t>なえ</t>
+  </si>
+  <si>
+    <t>cây giống, mầm cây</t>
+  </si>
+  <si>
+    <t>Miêu tự</t>
+  </si>
+  <si>
+    <t>苗字</t>
+  </si>
+  <si>
+    <t>みょうじ</t>
+  </si>
+  <si>
+    <t>họ (tên họ)</t>
+  </si>
+  <si>
+    <t>Địch</t>
+  </si>
+  <si>
+    <t>笛</t>
+  </si>
+  <si>
+    <t>ふえ</t>
+  </si>
+  <si>
+    <t>sáo, còi</t>
+  </si>
+  <si>
+    <t>Khẩu địch</t>
+  </si>
+  <si>
+    <t>口笛</t>
+  </si>
+  <si>
+    <t>くちぶえ</t>
+  </si>
+  <si>
+    <t>huýt sáo, sáo miệng</t>
+  </si>
+  <si>
+    <t>Cảnh địch</t>
+  </si>
+  <si>
+    <t>警笛</t>
+  </si>
+  <si>
+    <t>けいてき</t>
+  </si>
+  <si>
+    <t>còi báo động</t>
+  </si>
+  <si>
+    <r>
+      <t>Khánh điếu h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u hạ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Động vật ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc đãi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc sát</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ngụy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng nha</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chi c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Song s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng trụ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n buồn ngủ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng lịch (Tây lịch)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>thối rữa, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hỏng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc giới thiệu, đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc khuyên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>nghỉ hiếu hỉ (nghỉ vì tang hoặc c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ới hỏi)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>quan tâm, để ý, l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tâm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc đãi trẻ em</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc đãi động vật</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>giả dối, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ngụy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>răng nanh của s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tử</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ngây th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, vô tà</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng mù</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng mù dày đặc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng giá</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng trên cửa sổ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cột băng, cột s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng giá</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng, giọt s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng,露</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lộ ra, ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i bày</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tiết lộ, ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i bày</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>tiệc c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ới (tiệc báo hỷ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>dột n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a nặng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n màu đỏ son</t>
     </r>
   </si>
 </sst>
@@ -10335,12 +12263,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -10357,7 +12291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10368,6 +12302,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10479,8 +12419,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}" name="Table1" displayName="Table1" ref="A1:D522" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D522" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}" name="Table1" displayName="Table1" ref="A1:D617" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D617" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{53BB1968-B125-4FE7-8BDD-B1156C388E95}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1D0773FB-B94D-4F7A-A9BE-694BD8798C43}" name="Column2" dataDxfId="2"/>
@@ -10788,10 +12728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524FA198-CFCA-45E0-8E95-8ABF207FA3A8}">
-  <dimension ref="A1:F522"/>
+  <dimension ref="A1:F617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" zoomScale="106" workbookViewId="0">
-      <selection activeCell="B503" sqref="B503"/>
+    <sheetView tabSelected="1" topLeftCell="A613" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C618" sqref="C618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="22.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -18094,6 +20034,1336 @@
         <v>1993</v>
       </c>
     </row>
+    <row r="523" spans="1:4" s="5" customFormat="1" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A523" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A524" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A525" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B525" s="3" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A526" s="3" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B526" s="3" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C526" s="3" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A527" s="3" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A528" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A529" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A530" s="3" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A531" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A532" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A533" s="3" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A534" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A535" s="3" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A536" s="3" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A537" s="3" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A538" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A539" s="3" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A540" s="3" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A541" s="3" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>2089</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A542" s="3" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>2093</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A543" s="3" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A544" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>2101</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A545" s="3" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A546" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A547" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A548" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A549" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A550" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A551" s="3" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A552" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A553" s="3" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A554" s="3" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A555" s="3" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A556" s="3" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A557" s="3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A558" s="3" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A559" s="3" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A560" s="3" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A561" s="3" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>2157</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A562" s="3" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A563" s="3" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>2162</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A564" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>2166</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A565" s="3" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>2168</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A566" s="3" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A567" s="3" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A568" s="3" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>2060</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A569" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A570" s="3" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A571" s="3" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>2187</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>2188</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A572" s="3" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A573" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A574" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A575" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>2204</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A576" s="3" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A577" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A578" s="3" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A579" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A580" s="3" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A581" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A582" s="3" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A583" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A584" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A585" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A586" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A587" s="3" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A588" s="3" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A589" s="3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A590" s="3" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A591" s="3" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>2265</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A592" s="3" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A593" s="3" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>2268</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>2269</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A594" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>2270</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>2271</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A595" s="3" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>2273</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>2274</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A596" s="3" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A597" s="3" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>2279</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A598" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A599" s="3" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>2287</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A600" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>2289</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A601" s="3" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A602" s="3" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A603" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A604" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A605" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>2306</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A606" s="3" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>2309</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A607" s="3" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>2313</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A608" s="3" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>2317</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A609" s="3" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>2321</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A610" s="3" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>2324</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A611" s="3" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>2328</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A612" s="3" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>2330</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>2331</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A613" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>2333</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A614" s="3" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>2337</v>
+      </c>
+      <c r="C614" s="3" t="s">
+        <v>2338</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A615" s="3" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C615" s="3" t="s">
+        <v>2342</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A616" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B616" s="3" t="s">
+        <v>2345</v>
+      </c>
+      <c r="C616" s="3" t="s">
+        <v>2346</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A617" s="3" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>2349</v>
+      </c>
+      <c r="C617" s="3" t="s">
+        <v>2350</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>2351</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji_n1.xlsx
+++ b/kanji_n1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F2842\Desktop\TuanNV92\Other\Luyende_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC008BEA-6FB5-4A45-B059-D4418BEF61FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15774DF2-F62C-400D-9459-7E3FB5894355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{99E12D5B-8E1D-41F0-A484-964DAB65E428}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="2858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="3362">
   <si>
     <t>Nghĩa Hán tự (Hán Việt)</t>
   </si>
@@ -14636,6 +14636,2346 @@
         <scheme val="minor"/>
       </rPr>
       <t>ợng đài kỷ niệm</t>
+    </r>
+  </si>
+  <si>
+    <t>Tăng</t>
+  </si>
+  <si>
+    <t>僧</t>
+  </si>
+  <si>
+    <t>そう</t>
+  </si>
+  <si>
+    <t>Tiểu tăng</t>
+  </si>
+  <si>
+    <t>小僧</t>
+  </si>
+  <si>
+    <t>こぞう</t>
+  </si>
+  <si>
+    <t>Cậu bé, tiểu tăng</t>
+  </si>
+  <si>
+    <t>憎む</t>
+  </si>
+  <si>
+    <t>にくむ</t>
+  </si>
+  <si>
+    <t>Ghét, căm ghét</t>
+  </si>
+  <si>
+    <t>Tăng ác</t>
+  </si>
+  <si>
+    <t>憎悪</t>
+  </si>
+  <si>
+    <t>ぞうお</t>
+  </si>
+  <si>
+    <t>Sự căm ghét</t>
+  </si>
+  <si>
+    <t>Phiên</t>
+  </si>
+  <si>
+    <t>翻る</t>
+  </si>
+  <si>
+    <t>ひるがえる</t>
+  </si>
+  <si>
+    <t>Lật, bay phấp phới</t>
+  </si>
+  <si>
+    <t>Phiên dịch</t>
+  </si>
+  <si>
+    <t>翻訳する</t>
+  </si>
+  <si>
+    <t>ほんやくする</t>
+  </si>
+  <si>
+    <t>Dịch thuật</t>
+  </si>
+  <si>
+    <t>書類審査</t>
+  </si>
+  <si>
+    <t>しょるいしんさ</t>
+  </si>
+  <si>
+    <t>Thẩm nghị</t>
+  </si>
+  <si>
+    <t>審議する</t>
+  </si>
+  <si>
+    <t>しんぎする</t>
+  </si>
+  <si>
+    <t>Thảo luận, xem xét</t>
+  </si>
+  <si>
+    <t>Thẩm phán</t>
+  </si>
+  <si>
+    <t>審判</t>
+  </si>
+  <si>
+    <t>しんぱん</t>
+  </si>
+  <si>
+    <t>Trọng tài, thẩm phán</t>
+  </si>
+  <si>
+    <t>Cử động bất thẩm na</t>
+  </si>
+  <si>
+    <t>挙動不審な</t>
+  </si>
+  <si>
+    <t>きょどうふしんな</t>
+  </si>
+  <si>
+    <t>Hành động đáng ngờ</t>
+  </si>
+  <si>
+    <t>Đầu tạp</t>
+  </si>
+  <si>
+    <t>投稿</t>
+  </si>
+  <si>
+    <t>とうこう</t>
+  </si>
+  <si>
+    <t>Bài đăng, bài gửi</t>
+  </si>
+  <si>
+    <t>Nguyên cảo liệu</t>
+  </si>
+  <si>
+    <t>原稿料</t>
+  </si>
+  <si>
+    <t>げんこうりょう</t>
+  </si>
+  <si>
+    <t>Tiền nhuận bút</t>
+  </si>
+  <si>
+    <t>Kiều chính</t>
+  </si>
+  <si>
+    <t>矯正する</t>
+  </si>
+  <si>
+    <t>きょうせいする</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa, điều chỉnh</t>
+  </si>
+  <si>
+    <t>Quân hành</t>
+  </si>
+  <si>
+    <t>均衡</t>
+  </si>
+  <si>
+    <t>きんこう</t>
+  </si>
+  <si>
+    <t>Cân bằng</t>
+  </si>
+  <si>
+    <t>Bình hành cảm giác</t>
+  </si>
+  <si>
+    <t>平衡感覚</t>
+  </si>
+  <si>
+    <t>へいこうかんかく</t>
+  </si>
+  <si>
+    <t>Cảm giác cân bằng</t>
+  </si>
+  <si>
+    <t>Xung đột</t>
+  </si>
+  <si>
+    <t>衝突する</t>
+  </si>
+  <si>
+    <t>しょうとつする</t>
+  </si>
+  <si>
+    <t>Va chạm, xung đột</t>
+  </si>
+  <si>
+    <t>Xung kích</t>
+  </si>
+  <si>
+    <t>衝撃</t>
+  </si>
+  <si>
+    <t>しょうげき</t>
+  </si>
+  <si>
+    <t>Tác động mạnh, cú sốc</t>
+  </si>
+  <si>
+    <t>Đãi bộ</t>
+  </si>
+  <si>
+    <t>逮捕する</t>
+  </si>
+  <si>
+    <t>たいほする</t>
+  </si>
+  <si>
+    <t>Bắt giữ</t>
+  </si>
+  <si>
+    <t>Tĩnh túc</t>
+  </si>
+  <si>
+    <t>静粛</t>
+  </si>
+  <si>
+    <t>せいしゅく</t>
+  </si>
+  <si>
+    <t>Yên lặng, trật tự</t>
+  </si>
+  <si>
+    <t>Sinh hoàn</t>
+  </si>
+  <si>
+    <t>生還する</t>
+  </si>
+  <si>
+    <t>せいかんする</t>
+  </si>
+  <si>
+    <t>Trở về an toàn</t>
+  </si>
+  <si>
+    <t>Phản hoàn</t>
+  </si>
+  <si>
+    <t>返還</t>
+  </si>
+  <si>
+    <t>へんかん</t>
+  </si>
+  <si>
+    <t>Trả lại, hoàn trả</t>
+  </si>
+  <si>
+    <t>強制送還</t>
+  </si>
+  <si>
+    <t>きょうせいそうかん</t>
+  </si>
+  <si>
+    <t>Biến thiên</t>
+  </si>
+  <si>
+    <t>変遷</t>
+  </si>
+  <si>
+    <t>へんせん</t>
+  </si>
+  <si>
+    <t>Thay đổi, biến chuyển</t>
+  </si>
+  <si>
+    <t>Tả thiển</t>
+  </si>
+  <si>
+    <t>左遷</t>
+  </si>
+  <si>
+    <t>させん</t>
+  </si>
+  <si>
+    <t>Giáng chức, giáng cấp</t>
+  </si>
+  <si>
+    <t>Can thiệp</t>
+  </si>
+  <si>
+    <t>干渉する</t>
+  </si>
+  <si>
+    <t>Tiến trạc suất</t>
+  </si>
+  <si>
+    <t>進捗率</t>
+  </si>
+  <si>
+    <t>しんちょくりつ</t>
+  </si>
+  <si>
+    <t>Tỷ lệ tiến độ</t>
+  </si>
+  <si>
+    <t>Độ</t>
+  </si>
+  <si>
+    <t>捗る</t>
+  </si>
+  <si>
+    <t>はかどる</t>
+  </si>
+  <si>
+    <t>Tiến triển, thuận lợi</t>
+  </si>
+  <si>
+    <t>Sùng</t>
+  </si>
+  <si>
+    <t>憧れる</t>
+  </si>
+  <si>
+    <t>あこがれる</t>
+  </si>
+  <si>
+    <t>Sùng cảnh</t>
+  </si>
+  <si>
+    <t>憧憬</t>
+  </si>
+  <si>
+    <t>どうけい</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>鐘</t>
+  </si>
+  <si>
+    <t>かね</t>
+  </si>
+  <si>
+    <t>Chuông</t>
+  </si>
+  <si>
+    <t>Cảnh chung</t>
+  </si>
+  <si>
+    <t>警鐘</t>
+  </si>
+  <si>
+    <t>Chuông cảnh báo</t>
+  </si>
+  <si>
+    <t>Đồng</t>
+  </si>
+  <si>
+    <t>瞳</t>
+  </si>
+  <si>
+    <t>ひとみ</t>
+  </si>
+  <si>
+    <t>Đồng tử mắt</t>
+  </si>
+  <si>
+    <t>Đồng khổng</t>
+  </si>
+  <si>
+    <t>瞳孔</t>
+  </si>
+  <si>
+    <t>どうこう</t>
+  </si>
+  <si>
+    <t>Oa</t>
+  </si>
+  <si>
+    <t>鍋</t>
+  </si>
+  <si>
+    <t>なべ</t>
+  </si>
+  <si>
+    <t>Nồi</t>
+  </si>
+  <si>
+    <t>Qua</t>
+  </si>
+  <si>
+    <t>渦</t>
+  </si>
+  <si>
+    <t>うず</t>
+  </si>
+  <si>
+    <t>Qua trung</t>
+  </si>
+  <si>
+    <t>渦中</t>
+  </si>
+  <si>
+    <t>かちゅう</t>
+  </si>
+  <si>
+    <t>Giữa vòng xoáy</t>
+  </si>
+  <si>
+    <t>Họa</t>
+  </si>
+  <si>
+    <t>コロナ禍</t>
+  </si>
+  <si>
+    <t>コロナか</t>
+  </si>
+  <si>
+    <t>Đại dịch corona</t>
+  </si>
+  <si>
+    <t>Tị</t>
+  </si>
+  <si>
+    <t>避ける</t>
+  </si>
+  <si>
+    <t>Tránh, né</t>
+  </si>
+  <si>
+    <t>Tị thử địa</t>
+  </si>
+  <si>
+    <t>避暑地</t>
+  </si>
+  <si>
+    <t>ひしょち</t>
+  </si>
+  <si>
+    <t>Khu nghỉ mát tránh nóng</t>
+  </si>
+  <si>
+    <t>Hồi tị</t>
+  </si>
+  <si>
+    <t>回避する</t>
+  </si>
+  <si>
+    <t>かいひする</t>
+  </si>
+  <si>
+    <t>Tránh né</t>
+  </si>
+  <si>
+    <t>Tật</t>
+  </si>
+  <si>
+    <t>癖</t>
+  </si>
+  <si>
+    <t>くせ</t>
+  </si>
+  <si>
+    <t>Thói quen, tật xấu</t>
+  </si>
+  <si>
+    <t>Tẩm tật</t>
+  </si>
+  <si>
+    <t>寝癖</t>
+  </si>
+  <si>
+    <t>ねぐせ</t>
+  </si>
+  <si>
+    <t>Tóc rối sau khi ngủ</t>
+  </si>
+  <si>
+    <t>Khẩu tật</t>
+  </si>
+  <si>
+    <t>口癖</t>
+  </si>
+  <si>
+    <t>くちぐせ</t>
+  </si>
+  <si>
+    <t>Thói quen nói</t>
+  </si>
+  <si>
+    <t>Khiết tật chứng</t>
+  </si>
+  <si>
+    <t>潔癖症</t>
+  </si>
+  <si>
+    <t>けっぺきしょう</t>
+  </si>
+  <si>
+    <t>Bệnh sạch sẽ quá mức</t>
+  </si>
+  <si>
+    <t>Phụng sĩ hoạt động</t>
+  </si>
+  <si>
+    <t>奉仕活動</t>
+  </si>
+  <si>
+    <t>ほうしかつどう</t>
+  </si>
+  <si>
+    <t>Hoạt động phục vụ, tình nguyện</t>
+  </si>
+  <si>
+    <t>Niên bổng</t>
+  </si>
+  <si>
+    <t>年俸</t>
+  </si>
+  <si>
+    <t>ねんぽう</t>
+  </si>
+  <si>
+    <t>Thùy</t>
+  </si>
+  <si>
+    <t>垂れる</t>
+  </si>
+  <si>
+    <t>たれる</t>
+  </si>
+  <si>
+    <t>Rủ xuống, chảy nhỏ giọt</t>
+  </si>
+  <si>
+    <t>Vũ thùy</t>
+  </si>
+  <si>
+    <t>雨垂れ</t>
+  </si>
+  <si>
+    <t>あまだれ</t>
+  </si>
+  <si>
+    <t>Thùy trực</t>
+  </si>
+  <si>
+    <t>垂直</t>
+  </si>
+  <si>
+    <t>すいちょく</t>
+  </si>
+  <si>
+    <t>Thẳng đứng, vuông góc</t>
+  </si>
+  <si>
+    <t>Quá thặng na</t>
+  </si>
+  <si>
+    <t>過剰な</t>
+  </si>
+  <si>
+    <t>かじょうな</t>
+  </si>
+  <si>
+    <t>Quá mức, thừa thãi</t>
+  </si>
+  <si>
+    <t>Sinh sản quá thặng</t>
+  </si>
+  <si>
+    <t>生産過剰</t>
+  </si>
+  <si>
+    <t>せいさんかじょう</t>
+  </si>
+  <si>
+    <t>Sản xuất quá mức</t>
+  </si>
+  <si>
+    <t>Thóa</t>
+  </si>
+  <si>
+    <t>唾</t>
+  </si>
+  <si>
+    <t>つば</t>
+  </si>
+  <si>
+    <t>Thóa dịch</t>
+  </si>
+  <si>
+    <t>唾液</t>
+  </si>
+  <si>
+    <t>だえき</t>
+  </si>
+  <si>
+    <t>Ảo</t>
+  </si>
+  <si>
+    <t>幻</t>
+  </si>
+  <si>
+    <t>まぼろし</t>
+  </si>
+  <si>
+    <t>幻想的な</t>
+  </si>
+  <si>
+    <t>げんそうてきな</t>
+  </si>
+  <si>
+    <t>Ảo giác chứng trạng</t>
+  </si>
+  <si>
+    <t>幻覚症状</t>
+  </si>
+  <si>
+    <t>げんかくしょうじょう</t>
+  </si>
+  <si>
+    <t>Triệu chứng ảo giác</t>
+  </si>
+  <si>
+    <t>Ảo diệt</t>
+  </si>
+  <si>
+    <t>幻滅する</t>
+  </si>
+  <si>
+    <t>げんめつする</t>
+  </si>
+  <si>
+    <t>Vỡ mộng, thất vọng</t>
+  </si>
+  <si>
+    <t>Từ bi thâm</t>
+  </si>
+  <si>
+    <t>慈悲深い</t>
+  </si>
+  <si>
+    <t>じひぶかい</t>
+  </si>
+  <si>
+    <t>Rất từ bi</t>
+  </si>
+  <si>
+    <t>Từ thiện sự nghiệp</t>
+  </si>
+  <si>
+    <t>慈善事業</t>
+  </si>
+  <si>
+    <t>じぜんじぎょう</t>
+  </si>
+  <si>
+    <t>Công tác từ thiện</t>
+  </si>
+  <si>
+    <t>Từ sách</t>
+  </si>
+  <si>
+    <t>磁石</t>
+  </si>
+  <si>
+    <t>じしゃく</t>
+  </si>
+  <si>
+    <t>Nam châm</t>
+  </si>
+  <si>
+    <t>Từ khí</t>
+  </si>
+  <si>
+    <t>磁気</t>
+  </si>
+  <si>
+    <t>じき</t>
+  </si>
+  <si>
+    <t>Từ tính</t>
+  </si>
+  <si>
+    <t>Điện từ ba</t>
+  </si>
+  <si>
+    <t>電磁波</t>
+  </si>
+  <si>
+    <t>でんじは</t>
+  </si>
+  <si>
+    <t>Sóng điện từ</t>
+  </si>
+  <si>
+    <r>
+      <t>Th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loại thẩm tra</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng chế tống hoàn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ảo t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng đích na</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nhà s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kiểm tra hồ s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trục xuất c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng bức</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng mộ, khao khát</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sự ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng mộ, khao khát</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xoáy n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng năm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giọt m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a nhỏ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc bọt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ảo ảnh, ảo t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mang tính ảo t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+  </si>
+  <si>
+    <t>Bồi</t>
+  </si>
+  <si>
+    <t>培う</t>
+  </si>
+  <si>
+    <t>つちかう</t>
+  </si>
+  <si>
+    <t>損害賠償</t>
+  </si>
+  <si>
+    <t>そんがいばいしょう</t>
+  </si>
+  <si>
+    <t>優秀な</t>
+  </si>
+  <si>
+    <t>ゆうしゅうな</t>
+  </si>
+  <si>
+    <t>Xuất sắc</t>
+  </si>
+  <si>
+    <t>Tú tài</t>
+  </si>
+  <si>
+    <t>秀才</t>
+  </si>
+  <si>
+    <t>しゅうさい</t>
+  </si>
+  <si>
+    <t>Tú</t>
+  </si>
+  <si>
+    <t>秀でる</t>
+  </si>
+  <si>
+    <t>ひいでる</t>
+  </si>
+  <si>
+    <t>Nổi trội, xuất sắc</t>
+  </si>
+  <si>
+    <t>Thấu</t>
+  </si>
+  <si>
+    <t>透ける</t>
+  </si>
+  <si>
+    <t>すける</t>
+  </si>
+  <si>
+    <t>Trong suốt, nhìn xuyên qua</t>
+  </si>
+  <si>
+    <t>Thấu thông</t>
+  </si>
+  <si>
+    <t>透き通った</t>
+  </si>
+  <si>
+    <t>すきとおった</t>
+  </si>
+  <si>
+    <t>Trong suốt</t>
+  </si>
+  <si>
+    <t>Tẩm thấu</t>
+  </si>
+  <si>
+    <t>浸透する</t>
+  </si>
+  <si>
+    <t>しんとうする</t>
+  </si>
+  <si>
+    <t>Thấm qua, thâm nhập</t>
+  </si>
+  <si>
+    <t>Hận</t>
+  </si>
+  <si>
+    <t>恨む</t>
+  </si>
+  <si>
+    <t>うらむ</t>
+  </si>
+  <si>
+    <t>Oán hận</t>
+  </si>
+  <si>
+    <t>Thống hận</t>
+  </si>
+  <si>
+    <t>痛恨</t>
+  </si>
+  <si>
+    <t>つうこん</t>
+  </si>
+  <si>
+    <t>Sự hối hận sâu sắc</t>
+  </si>
+  <si>
+    <t>Ba lãng chú ý báo</t>
+  </si>
+  <si>
+    <t>波浪注意報</t>
+  </si>
+  <si>
+    <t>はろうちゅういほう</t>
+  </si>
+  <si>
+    <t>Cảnh báo sóng lớn</t>
+  </si>
+  <si>
+    <t>Phóng lãng</t>
+  </si>
+  <si>
+    <t>放浪</t>
+  </si>
+  <si>
+    <t>ほうろう</t>
+  </si>
+  <si>
+    <t>Lang thang, phiêu bạt</t>
+  </si>
+  <si>
+    <t>Lãng nhân</t>
+  </si>
+  <si>
+    <t>浪人する</t>
+  </si>
+  <si>
+    <t>ろうにんする</t>
+  </si>
+  <si>
+    <t>Lãng phí</t>
+  </si>
+  <si>
+    <t>浪費</t>
+  </si>
+  <si>
+    <t>ろうひ</t>
+  </si>
+  <si>
+    <t>Hằn</t>
+  </si>
+  <si>
+    <t>痕</t>
+  </si>
+  <si>
+    <t>あと</t>
+  </si>
+  <si>
+    <t>Vết tích, dấu vết</t>
+  </si>
+  <si>
+    <t>Huyết hằn</t>
+  </si>
+  <si>
+    <t>血痕</t>
+  </si>
+  <si>
+    <t>けっこん</t>
+  </si>
+  <si>
+    <t>Vết máu</t>
+  </si>
+  <si>
+    <t>Hằn tích</t>
+  </si>
+  <si>
+    <t>痕跡</t>
+  </si>
+  <si>
+    <t>こんせき</t>
+  </si>
+  <si>
+    <t>Dấu vết, dấu tích</t>
+  </si>
+  <si>
+    <t>Lãng</t>
+  </si>
+  <si>
+    <t>朗らかな</t>
+  </si>
+  <si>
+    <t>ほがらかな</t>
+  </si>
+  <si>
+    <t>Vui vẻ, sáng sủa</t>
+  </si>
+  <si>
+    <t>Lãng độc</t>
+  </si>
+  <si>
+    <t>朗読する</t>
+  </si>
+  <si>
+    <t>ろうどくする</t>
+  </si>
+  <si>
+    <t>Đọc to, đọc diễn cảm</t>
+  </si>
+  <si>
+    <t>Minh lãng</t>
+  </si>
+  <si>
+    <t>明朗な</t>
+  </si>
+  <si>
+    <t>めいろうな</t>
+  </si>
+  <si>
+    <t>Sáng sủa, vui vẻ</t>
+  </si>
+  <si>
+    <t>郷</t>
+  </si>
+  <si>
+    <t>さと</t>
+  </si>
+  <si>
+    <t>Làng quê</t>
+  </si>
+  <si>
+    <t>郷土料理</t>
+  </si>
+  <si>
+    <t>きょうどりょうり</t>
+  </si>
+  <si>
+    <t>Bát thự</t>
+  </si>
+  <si>
+    <t>鉢植え</t>
+  </si>
+  <si>
+    <t>はちうえ</t>
+  </si>
+  <si>
+    <t>Cây trồng trong chậu</t>
+  </si>
+  <si>
+    <t>Thực mộc bát</t>
+  </si>
+  <si>
+    <t>植木鉢</t>
+  </si>
+  <si>
+    <t>うえきばち</t>
+  </si>
+  <si>
+    <t>Chậu cây</t>
+  </si>
+  <si>
+    <t>Bát quấn</t>
+  </si>
+  <si>
+    <t>鉢巻</t>
+  </si>
+  <si>
+    <t>はちまき</t>
+  </si>
+  <si>
+    <t>Băng đô, băng trán</t>
+  </si>
+  <si>
+    <t>釣る</t>
+  </si>
+  <si>
+    <t>つる</t>
+  </si>
+  <si>
+    <t>Câu cá</t>
+  </si>
+  <si>
+    <t>Tỏa</t>
+  </si>
+  <si>
+    <t>鎖</t>
+  </si>
+  <si>
+    <t>くさり</t>
+  </si>
+  <si>
+    <t>Xích, dây xích</t>
+  </si>
+  <si>
+    <t>Bế tỏa</t>
+  </si>
+  <si>
+    <t>閉鎖する</t>
+  </si>
+  <si>
+    <t>へいさする</t>
+  </si>
+  <si>
+    <t>Đóng cửa, phong tỏa</t>
+  </si>
+  <si>
+    <t>Liên tỏa</t>
+  </si>
+  <si>
+    <t>連鎖</t>
+  </si>
+  <si>
+    <t>れんさ</t>
+  </si>
+  <si>
+    <t>Chuỗi, liên kết</t>
+  </si>
+  <si>
+    <t>Biệt đồng</t>
+  </si>
+  <si>
+    <t>別棟</t>
+  </si>
+  <si>
+    <t>べつとう</t>
+  </si>
+  <si>
+    <t>Tòa nhà riêng biệt</t>
+  </si>
+  <si>
+    <t>Bệnh đồng</t>
+  </si>
+  <si>
+    <t>病棟</t>
+  </si>
+  <si>
+    <t>びょうとう</t>
+  </si>
+  <si>
+    <t>Khu bệnh viện</t>
+  </si>
+  <si>
+    <t>Tinh luyện</t>
+  </si>
+  <si>
+    <t>精錬する</t>
+  </si>
+  <si>
+    <t>せいれんする</t>
+  </si>
+  <si>
+    <t>Tinh luyện, luyện kim</t>
+  </si>
+  <si>
+    <t>Đoán luyện</t>
+  </si>
+  <si>
+    <t>鍛錬する</t>
+  </si>
+  <si>
+    <t>たんれんする</t>
+  </si>
+  <si>
+    <t>Rèn luyện</t>
+  </si>
+  <si>
+    <t>Trần liệt</t>
+  </si>
+  <si>
+    <t>陳列する</t>
+  </si>
+  <si>
+    <t>ちんれつする</t>
+  </si>
+  <si>
+    <t>Tân trần đại tá</t>
+  </si>
+  <si>
+    <t>新陳代謝</t>
+  </si>
+  <si>
+    <t>しんちんたいしゃ</t>
+  </si>
+  <si>
+    <t>Trao đổi chất</t>
+  </si>
+  <si>
+    <t>Trần thuật</t>
+  </si>
+  <si>
+    <t>陳述する</t>
+  </si>
+  <si>
+    <t>ちんじゅつする</t>
+  </si>
+  <si>
+    <t>Trình bày, bày tỏ</t>
+  </si>
+  <si>
+    <t>Ban</t>
+  </si>
+  <si>
+    <t>班</t>
+  </si>
+  <si>
+    <t>はん</t>
+  </si>
+  <si>
+    <t>Nhóm, tổ</t>
+  </si>
+  <si>
+    <t>班長</t>
+  </si>
+  <si>
+    <t>はんちょう</t>
+  </si>
+  <si>
+    <t>皇居</t>
+  </si>
+  <si>
+    <t>こうきょ</t>
+  </si>
+  <si>
+    <t>Cung điện Hoàng gia</t>
+  </si>
+  <si>
+    <t>Thiên hoàng</t>
+  </si>
+  <si>
+    <t>天皇</t>
+  </si>
+  <si>
+    <t>てんのう</t>
+  </si>
+  <si>
+    <t>Lộ trình</t>
+  </si>
+  <si>
+    <t>露呈する</t>
+  </si>
+  <si>
+    <t>ろていする</t>
+  </si>
+  <si>
+    <t>Lộ ra, bộc lộ</t>
+  </si>
+  <si>
+    <t>Tặng trình</t>
+  </si>
+  <si>
+    <t>贈呈する</t>
+  </si>
+  <si>
+    <t>ぞうていする</t>
+  </si>
+  <si>
+    <t>Trao tặng</t>
+  </si>
+  <si>
+    <t>Thánh mẫu</t>
+  </si>
+  <si>
+    <t>聖母</t>
+  </si>
+  <si>
+    <t>せいぼ</t>
+  </si>
+  <si>
+    <t>Đức Mẹ (Thiên Chúa giáo)</t>
+  </si>
+  <si>
+    <t>Thánh</t>
+  </si>
+  <si>
+    <t>聖なる</t>
+  </si>
+  <si>
+    <t>せいなる</t>
+  </si>
+  <si>
+    <t>Thánh thiện</t>
+  </si>
+  <si>
+    <t>Thỉnh phụ</t>
+  </si>
+  <si>
+    <t>請け負う</t>
+  </si>
+  <si>
+    <t>うけおう</t>
+  </si>
+  <si>
+    <t>Nhận làm, đảm nhận</t>
+  </si>
+  <si>
+    <t>Yếu thỉnh</t>
+  </si>
+  <si>
+    <t>要請する</t>
+  </si>
+  <si>
+    <t>ようせいする</t>
+  </si>
+  <si>
+    <t>Yêu cầu, đề nghị</t>
+  </si>
+  <si>
+    <t>Ủy thác</t>
+  </si>
+  <si>
+    <t>委託する</t>
+  </si>
+  <si>
+    <t>いたくする</t>
+  </si>
+  <si>
+    <t>Thác đã</t>
+  </si>
+  <si>
+    <t>託された</t>
+  </si>
+  <si>
+    <t>たくされた</t>
+  </si>
+  <si>
+    <t>Đính chính</t>
+  </si>
+  <si>
+    <t>訂正する</t>
+  </si>
+  <si>
+    <t>ていせいする</t>
+  </si>
+  <si>
+    <t>Sửa chữa, đính chính</t>
+  </si>
+  <si>
+    <t>Thành thật</t>
+  </si>
+  <si>
+    <t>誠実な</t>
+  </si>
+  <si>
+    <t>せいじつな</t>
+  </si>
+  <si>
+    <t>Thành thật, chân thành</t>
+  </si>
+  <si>
+    <t>Thành ý</t>
+  </si>
+  <si>
+    <t>誠意</t>
+  </si>
+  <si>
+    <t>せいい</t>
+  </si>
+  <si>
+    <t>Thành ý, chân thành</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>誠に</t>
+  </si>
+  <si>
+    <t>まことに</t>
+  </si>
+  <si>
+    <t>Thật sự, chân thành</t>
+  </si>
+  <si>
+    <t>諸国</t>
+  </si>
+  <si>
+    <t>しょこく</t>
+  </si>
+  <si>
+    <t>諸説</t>
+  </si>
+  <si>
+    <t>しょせつ</t>
+  </si>
+  <si>
+    <t>Nhiều thuyết</t>
+  </si>
+  <si>
+    <t>諸問題</t>
+  </si>
+  <si>
+    <t>しょもんだい</t>
+  </si>
+  <si>
+    <t>Nhiều vấn đề</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>誇る</t>
+  </si>
+  <si>
+    <t>ほこる</t>
+  </si>
+  <si>
+    <t>誇張</t>
+  </si>
+  <si>
+    <t>こちょう</t>
+  </si>
+  <si>
+    <t>Phổ</t>
+  </si>
+  <si>
+    <t>譜</t>
+  </si>
+  <si>
+    <t>ふ</t>
+  </si>
+  <si>
+    <t>Bảng, bản nhạc</t>
+  </si>
+  <si>
+    <t>Nhạc phổ</t>
+  </si>
+  <si>
+    <t>楽譜</t>
+  </si>
+  <si>
+    <t>がくふ</t>
+  </si>
+  <si>
+    <t>Bản nhạc</t>
+  </si>
+  <si>
+    <t>Trá kỳ</t>
+  </si>
+  <si>
+    <t>詐欺</t>
+  </si>
+  <si>
+    <t>さぎ</t>
+  </si>
+  <si>
+    <t>Lừa đảo</t>
+  </si>
+  <si>
+    <t>詐称する</t>
+  </si>
+  <si>
+    <t>さしょうする</t>
+  </si>
+  <si>
+    <t>Mạo danh, giả mạo</t>
+  </si>
+  <si>
+    <t>Trá thủ</t>
+  </si>
+  <si>
+    <t>詐取する</t>
+  </si>
+  <si>
+    <t>さしゅする</t>
+  </si>
+  <si>
+    <t>Lừa lấy, chiếm đoạt</t>
+  </si>
+  <si>
+    <t>Tố tụng</t>
+  </si>
+  <si>
+    <t>訴訟</t>
+  </si>
+  <si>
+    <t>そしょう</t>
+  </si>
+  <si>
+    <t>Kiện tụng, tố tụng</t>
+  </si>
+  <si>
+    <t>Dân sự tố tụng</t>
+  </si>
+  <si>
+    <t>民事訴訟</t>
+  </si>
+  <si>
+    <t>みんじそしょう</t>
+  </si>
+  <si>
+    <t>Tố tụng dân sự</t>
+  </si>
+  <si>
+    <t>諮問する</t>
+  </si>
+  <si>
+    <t>しもんする</t>
+  </si>
+  <si>
+    <t>Tham vấn</t>
+  </si>
+  <si>
+    <t>Mê</t>
+  </si>
+  <si>
+    <t>謎</t>
+  </si>
+  <si>
+    <t>なぞ</t>
+  </si>
+  <si>
+    <t>Câu đố, bí ẩn</t>
+  </si>
+  <si>
+    <t>Mê mê</t>
+  </si>
+  <si>
+    <t>謎謎</t>
+  </si>
+  <si>
+    <t>なぞなぞ</t>
+  </si>
+  <si>
+    <t>Câu đố</t>
+  </si>
+  <si>
+    <r>
+      <t>Tổn hại bồi th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tú</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng thổ liệu lý</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ban tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hoàng c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> quốc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thuyết</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vấn đề</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khoa tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trá x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vấn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nuôi d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng, vun đắp</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bồi th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng thiệt hại</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời tài giỏi</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời thất nghiệp, lang thang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Món ăn địa ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng bày</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng nhóm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc ủy thác</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Các n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phóng đại, khoa tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
     </r>
   </si>
 </sst>
@@ -14843,8 +17183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}" name="Table1" displayName="Table1" ref="A1:D735" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D735" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}" name="Table1" displayName="Table1" ref="A1:D866" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D866" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{53BB1968-B125-4FE7-8BDD-B1156C388E95}" name="Column1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1D0773FB-B94D-4F7A-A9BE-694BD8798C43}" name="Column2" dataDxfId="2"/>
@@ -15152,10 +17492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524FA198-CFCA-45E0-8E95-8ABF207FA3A8}">
-  <dimension ref="A1:F735"/>
+  <dimension ref="A1:F866"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A725" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C737" sqref="C737"/>
+    <sheetView tabSelected="1" topLeftCell="A805" zoomScale="106" workbookViewId="0">
+      <selection activeCell="H812" sqref="H812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="22.2" x14ac:dyDescent="0.45"/>
@@ -25440,6 +27780,1840 @@
         <v>2847</v>
       </c>
     </row>
+    <row r="736" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A736" s="4" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C736" s="4" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A737" s="3" t="s">
+        <v>2861</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A738" s="3" t="s">
+        <v>2858</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A739" s="3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A740" s="3" t="s">
+        <v>2872</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A741" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A742" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A743" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A744" s="3" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A745" s="3" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A746" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A747" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A748" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A749" s="3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>2909</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A750" s="3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A751" s="3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A752" s="3" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D752" s="3" t="s">
+        <v>2921</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A753" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A754" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A755" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A756" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A757" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A758" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A759" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A760" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A761" s="3" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A762" s="3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D762" s="3" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A763" s="3" t="s">
+        <v>2958</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D763" s="3" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A764" s="3" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D764" s="3" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A765" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A766" s="3" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A767" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A768" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D768" s="3" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A769" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D769" s="3" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A770" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D770" s="3" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A771" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D771" s="3" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A772" s="3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A773" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A774" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A775" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A776" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A777" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A778" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A779" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A780" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A781" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A782" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A783" s="3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A784" s="3" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A785" s="3" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A786" s="3" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A787" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A788" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A789" s="3" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A790" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A791" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A792" s="3" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>3063</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A793" s="3" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>3067</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A794" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A795" s="3" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A796" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A797" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A798" s="4" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C798" s="4" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A799" s="3" t="s">
+        <v>2644</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>2645</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A800" s="3" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A801" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A802" s="3" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A803" s="3" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A804" s="3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A805" s="3" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A806" s="3" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A807" s="3" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A808" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A809" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>3136</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A810" s="3" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A811" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A812" s="3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A813" s="3" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A814" s="3" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>3154</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A815" s="3" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>3158</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A816" s="3" t="s">
+        <v>3160</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>3162</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A817" s="3" t="s">
+        <v>3164</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>3166</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A818" s="3" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>3170</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A819" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>3173</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A820" s="3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>3176</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A821" s="3" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>3178</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A822" s="3" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A823" s="3" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A824" s="3" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>3190</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A825" s="3" t="s">
+        <v>3192</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A826" s="3" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>3198</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A827" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A828" s="3" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A829" s="3" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>3209</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A830" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A831" s="3" t="s">
+        <v>3216</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>3219</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A832" s="3" t="s">
+        <v>3220</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>3222</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A833" s="3" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A834" s="3" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A835" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A836" s="3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>3236</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A837" s="3" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A838" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A839" s="3" t="s">
+        <v>3240</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>3241</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>3242</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A840" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>3245</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A841" s="3" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>3249</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A842" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>3252</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A843" s="3" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>3256</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>3257</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A844" s="3" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>3260</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>3261</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A845" s="3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>3266</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A846" s="3" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A847" s="3" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>3271</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A848" s="3" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>3276</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A849" s="3" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>3278</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A850" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>3282</v>
+      </c>
+      <c r="C850" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A851" s="3" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A852" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A853" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>3293</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A854" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A855" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>3298</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A856" s="3" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>3301</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A857" s="3" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>3303</v>
+      </c>
+      <c r="C857" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A858" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="C858" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A859" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>3311</v>
+      </c>
+      <c r="C859" s="3" t="s">
+        <v>3312</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>3313</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A860" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>3314</v>
+      </c>
+      <c r="C860" s="3" t="s">
+        <v>3315</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A861" s="3" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>3318</v>
+      </c>
+      <c r="C861" s="3" t="s">
+        <v>3319</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A862" s="3" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>3322</v>
+      </c>
+      <c r="C862" s="3" t="s">
+        <v>3323</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A863" s="3" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>3326</v>
+      </c>
+      <c r="C863" s="3" t="s">
+        <v>3327</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A864" s="3" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>3329</v>
+      </c>
+      <c r="C864" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A865" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="C865" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="D865" s="3" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="A866" s="3" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="C866" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>3339</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/kanji_n1.xlsx
+++ b/kanji_n1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F2842\Desktop\TuanNV92\Other\Luyende_N1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DD834F-6D94-4838-A891-074A123C5310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12218E9-3721-4441-A73C-E2E3E8BD04F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{99E12D5B-8E1D-41F0-A484-964DAB65E428}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99E12D5B-8E1D-41F0-A484-964DAB65E428}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29662,9 +29662,6 @@
     <t>Đã biến thành, đã hoá trang, đã biến dạng</t>
   </si>
   <si>
-    <t>貧弱 (bần nhược)</t>
-  </si>
-  <si>
     <t>貧弱</t>
   </si>
   <si>
@@ -29815,18 +29812,9 @@
     <t>じゅうみんたちのはんかん</t>
   </si>
   <si>
-    <t>Sự phản đối của cư dân</t>
-  </si>
-  <si>
-    <t>（Giả sử, như thể）</t>
-  </si>
-  <si>
     <t>あたかも・まるで</t>
   </si>
   <si>
-    <t>Như thể, giống như</t>
-  </si>
-  <si>
     <t>改築 (cải trúc)</t>
   </si>
   <si>
@@ -29854,9 +29842,6 @@
     <t>おちた・あせた</t>
   </si>
   <si>
-    <t>Rơi, giảm sút, phai màu, nhạt màu</t>
-  </si>
-  <si>
     <t>抑制 (ức chế)</t>
   </si>
   <si>
@@ -29881,18 +29866,12 @@
     <t>Làm giả, ngụy tạo</t>
   </si>
   <si>
-    <t>Nhượng bộ</t>
-  </si>
-  <si>
     <t>譲歩</t>
   </si>
   <si>
     <t>じょうほ</t>
   </si>
   <si>
-    <t>Nhượng bộ, nhường nhịn</t>
-  </si>
-  <si>
     <t>蓄積</t>
   </si>
   <si>
@@ -29980,9 +29959,6 @@
     <t>にんげんみ</t>
   </si>
   <si>
-    <t>Tình người, tính nhân văn</t>
-  </si>
-  <si>
     <t>とっておき</t>
   </si>
   <si>
@@ -30025,9 +30001,6 @@
     <t>Sự phỉ báng, nói xấu</t>
   </si>
   <si>
-    <t>Trung thương</t>
-  </si>
-  <si>
     <t>中傷</t>
   </si>
   <si>
@@ -30082,18 +30055,12 @@
     <t>Bị mắc bệnh</t>
   </si>
   <si>
-    <t>Nhân tướng</t>
-  </si>
-  <si>
     <t>人相の男</t>
   </si>
   <si>
     <t>にんそうのおとこ</t>
   </si>
   <si>
-    <t>Người đàn ông có khuôn mặt...</t>
-  </si>
-  <si>
     <t>Nhất tự nhất cú mục phối</t>
   </si>
   <si>
@@ -30115,9 +30082,6 @@
     <t>ほんいをとげた</t>
   </si>
   <si>
-    <t>Đạt được ý nguyện, mục đích ban đầu</t>
-  </si>
-  <si>
     <t>Tình</t>
   </si>
   <si>
@@ -30127,39 +30091,21 @@
     <t>なさけをかけす</t>
   </si>
   <si>
-    <t>Không thương hại, không tỏ lòng thương</t>
-  </si>
-  <si>
-    <t>Cấp thành trưởng</t>
-  </si>
-  <si>
     <t>急成長</t>
   </si>
   <si>
     <t>きゅうせいちょう</t>
   </si>
   <si>
-    <t>Tăng trưởng nhanh</t>
-  </si>
-  <si>
-    <t>Tưởng tượng thượng</t>
-  </si>
-  <si>
     <t>想像上</t>
   </si>
   <si>
     <t>そうぞうじょう</t>
   </si>
   <si>
-    <t>Trong tưởng tượng</t>
-  </si>
-  <si>
     <t>まとまった</t>
   </si>
   <si>
-    <t>Số lượng lớn, nhiều</t>
-  </si>
-  <si>
     <t>きっぱり</t>
   </si>
   <si>
@@ -30175,15 +30121,9 @@
     <t>すがすがしい</t>
   </si>
   <si>
-    <t>Sảng khoái, tươi mới</t>
-  </si>
-  <si>
     <t>あなどって</t>
   </si>
   <si>
-    <t>Xem thường, coi nhẹ</t>
-  </si>
-  <si>
     <t>煙って</t>
   </si>
   <si>
@@ -30208,12 +30148,6 @@
     <t>したって</t>
   </si>
   <si>
-    <t>Ngưỡng mộ, yêu mến</t>
-  </si>
-  <si>
-    <t>Dư hạ</t>
-  </si>
-  <si>
     <t>余暇</t>
   </si>
   <si>
@@ -30259,9 +30193,6 @@
     <t>げんこうがけいさい</t>
   </si>
   <si>
-    <t>Bản thảo được đăng</t>
-  </si>
-  <si>
     <t>Cứu viện vật tư</t>
   </si>
   <si>
@@ -30271,9 +30202,6 @@
     <t>きゅうえんぶっし</t>
   </si>
   <si>
-    <t>Vật tư cứu trợ</t>
-  </si>
-  <si>
     <t>Trị liệu chuyên niệm</t>
   </si>
   <si>
@@ -30307,9 +30235,6 @@
     <t>げんしゅ</t>
   </si>
   <si>
-    <t>Nguyên thủ (người đứng đầu cũ)</t>
-  </si>
-  <si>
     <t>Chiết trung</t>
   </si>
   <si>
@@ -30328,18 +30253,12 @@
     <t>はつが</t>
   </si>
   <si>
-    <t>Dưỡng dục phí</t>
-  </si>
-  <si>
     <t>養育費</t>
   </si>
   <si>
     <t>よういくひ</t>
   </si>
   <si>
-    <t>Phí nuôi dưỡng</t>
-  </si>
-  <si>
     <t>Tái tải</t>
   </si>
   <si>
@@ -30382,18 +30301,12 @@
     <t>Giáo dục suốt đời</t>
   </si>
   <si>
-    <t>Miễn cưỡng gia</t>
-  </si>
-  <si>
     <t>勉強家</t>
   </si>
   <si>
     <t>べんきょうか</t>
   </si>
   <si>
-    <t>Người chăm học</t>
-  </si>
-  <si>
     <t>Khinh tự động xa</t>
   </si>
   <si>
@@ -30529,9 +30442,6 @@
     <t>おもむいた</t>
   </si>
   <si>
-    <t>Đi đến, đến nơi (công tác)</t>
-  </si>
-  <si>
     <t>Bại bắc</t>
   </si>
   <si>
@@ -30619,30 +30529,18 @@
     <t>いちだんと</t>
   </si>
   <si>
-    <t>Hơn hẳn, vượt bậc</t>
-  </si>
-  <si>
     <t>かいつまん</t>
   </si>
   <si>
-    <t>Tóm tắt, tóm lược</t>
-  </si>
-  <si>
     <t>まどわされた</t>
   </si>
   <si>
     <t>Bị lừa, bị mê hoặc</t>
   </si>
   <si>
-    <t>Khái lược</t>
-  </si>
-  <si>
     <t>あらまし</t>
   </si>
   <si>
-    <t>Đại khái, tóm lược</t>
-  </si>
-  <si>
     <t>Vô thần kinh</t>
   </si>
   <si>
@@ -30679,9 +30577,6 @@
     <t>しずく</t>
   </si>
   <si>
-    <t>Giọt nước</t>
-  </si>
-  <si>
     <t>描写</t>
   </si>
   <si>
@@ -30700,9 +30595,6 @@
     <t>Nhạt nhẽo, vô vị</t>
   </si>
   <si>
-    <t>Bồi thường</t>
-  </si>
-  <si>
     <t>賠償</t>
   </si>
   <si>
@@ -30727,9 +30619,6 @@
     <t>よだんをゆるさない</t>
   </si>
   <si>
-    <t>Không thể lường trước được</t>
-  </si>
-  <si>
     <t>Cá thất</t>
   </si>
   <si>
@@ -30754,9 +30643,6 @@
     <t>こうどうは</t>
   </si>
   <si>
-    <t>Người thiên về hành động</t>
-  </si>
-  <si>
     <t>余計な</t>
   </si>
   <si>
@@ -30808,9 +30694,6 @@
     <t>なごむ</t>
   </si>
   <si>
-    <t>Hòa nhã, dịu dàng, thư thái</t>
-  </si>
-  <si>
     <t>Khinh</t>
   </si>
   <si>
@@ -30820,9 +30703,6 @@
     <t>かろんじる</t>
   </si>
   <si>
-    <t>Xem nhẹ, coi thường</t>
-  </si>
-  <si>
     <t>Mẫu mực, hình mẫu</t>
   </si>
   <si>
@@ -30832,9 +30712,6 @@
     <t>かくとく</t>
   </si>
   <si>
-    <t>Đạt được, thu được</t>
-  </si>
-  <si>
     <t>Phát thanh luyện tập</t>
   </si>
   <si>
@@ -30871,9 +30748,6 @@
     <t>Phòng ngự lỏng lẻo, yếu</t>
   </si>
   <si>
-    <t>Liên tưởng</t>
-  </si>
-  <si>
     <t>連想</t>
   </si>
   <si>
@@ -30889,9 +30763,6 @@
     <t>きりょくがじゅうじつし</t>
   </si>
   <si>
-    <t>Tràn đầy sinh lực, tràn đầy năng lượng</t>
-  </si>
-  <si>
     <t>Hồng nhất điểm</t>
   </si>
   <si>
@@ -30913,9 +30784,6 @@
     <t>ふうぶつし</t>
   </si>
   <si>
-    <t>Đặc trưng của mùa, điều tiêu biểu cho mùa</t>
-  </si>
-  <si>
     <t>しりぞけた</t>
   </si>
   <si>
@@ -30958,18 +30826,12 @@
     <t>おもいしらされた</t>
   </si>
   <si>
-    <t>Được thấm thía, thực sự hiểu</t>
-  </si>
-  <si>
     <t>図る</t>
   </si>
   <si>
     <t>はかる</t>
   </si>
   <si>
-    <t>Lập kế hoạch, mưu đồ, tính toán</t>
-  </si>
-  <si>
     <t>Bệnh</t>
   </si>
   <si>
@@ -31006,9 +30868,6 @@
     <t>Vi tiếu</t>
   </si>
   <si>
-    <t>Mỉm cười</t>
-  </si>
-  <si>
     <t>Dung thông</t>
   </si>
   <si>
@@ -31030,9 +30889,6 @@
     <t>ほんそう</t>
   </si>
   <si>
-    <t>Chạy ngược chạy xuôi, nỗ lực</t>
-  </si>
-  <si>
     <t>Tặng dữ thuế</t>
   </si>
   <si>
@@ -31051,9 +30907,6 @@
     <t>かんめいをうけ</t>
   </si>
   <si>
-    <t>Bị cảm động, ấn tượng mạnh</t>
-  </si>
-  <si>
     <t>Thuyền kiến tạo</t>
   </si>
   <si>
@@ -31063,21 +30916,12 @@
     <t>ふねがけんぞう</t>
   </si>
   <si>
-    <t>Đóng tàu (tàu được đóng)</t>
-  </si>
-  <si>
-    <t>Trương bản nhân</t>
-  </si>
-  <si>
     <t>張本人</t>
   </si>
   <si>
     <t>ちょうほんにん</t>
   </si>
   <si>
-    <t>Thủ phạm chính, kẻ chủ mưu</t>
-  </si>
-  <si>
     <t>Cấp tuyển thủ</t>
   </si>
   <si>
@@ -31120,18 +30964,12 @@
     <t>Lạnh lùng, thờ ơ</t>
   </si>
   <si>
-    <t>Cơ bản khái niệm</t>
-  </si>
-  <si>
     <t>基本概念</t>
   </si>
   <si>
     <t>きほんがいねん</t>
   </si>
   <si>
-    <t>Khái niệm cơ bản</t>
-  </si>
-  <si>
     <t>しみじみ</t>
   </si>
   <si>
@@ -31153,9 +30991,6 @@
     <t>まさる</t>
   </si>
   <si>
-    <t>Vượt trội, hơn hẳn</t>
-  </si>
-  <si>
     <t>奮って</t>
   </si>
   <si>
@@ -31165,9 +31000,6 @@
     <t>Phấn chấn, hào hứng</t>
   </si>
   <si>
-    <t>Sưu tác</t>
-  </si>
-  <si>
     <t>Tìm kiếm</t>
   </si>
   <si>
@@ -31183,9 +31015,6 @@
     <t>Tối mai</t>
   </si>
   <si>
-    <t>Hương vị, phong vị, sắc thái</t>
-  </si>
-  <si>
     <t>An miên</t>
   </si>
   <si>
@@ -31207,9 +31036,6 @@
     <t>めいぶつきょうじゅ</t>
   </si>
   <si>
-    <t>Giáo sư nổi tiếng</t>
-  </si>
-  <si>
     <t>Quốc giao đoạn tuyệt</t>
   </si>
   <si>
@@ -31243,9 +31069,6 @@
     <t>あんにどうい</t>
   </si>
   <si>
-    <t>Đồng ý với phương án</t>
-  </si>
-  <si>
     <t>Nghiêm chính</t>
   </si>
   <si>
@@ -31267,9 +31090,6 @@
     <t>おおまかな</t>
   </si>
   <si>
-    <t>Đại khái, sơ lược</t>
-  </si>
-  <si>
     <t>はしたない</t>
   </si>
   <si>
@@ -31288,9 +31108,6 @@
     <t>ためらっている</t>
   </si>
   <si>
-    <t>Lưỡng lự, do dự, ngập ngừng</t>
-  </si>
-  <si>
     <t>リストラ</t>
   </si>
   <si>
@@ -31315,9 +31132,6 @@
     <t>Cố phản</t>
   </si>
   <si>
-    <t>Nhìn lại, hồi tưởng</t>
-  </si>
-  <si>
     <t>記し</t>
   </si>
   <si>
@@ -31351,9 +31165,6 @@
     <t>ごくらく</t>
   </si>
   <si>
-    <t>Thiên đường, cực lạc</t>
-  </si>
-  <si>
     <t>Tẩm sàng</t>
   </si>
   <si>
@@ -31363,9 +31174,6 @@
     <t>ねどこ</t>
   </si>
   <si>
-    <t>Giường ngủ</t>
-  </si>
-  <si>
     <t>Đại bệnh</t>
   </si>
   <si>
@@ -31387,9 +31195,6 @@
     <t>ほじしゃ</t>
   </si>
   <si>
-    <t>Người giữ, người sở hữu</t>
-  </si>
-  <si>
     <t>Cân thư</t>
   </si>
   <si>
@@ -31411,12 +31216,6 @@
     <t>くなんをのりきった</t>
   </si>
   <si>
-    <t>Vượt qua khó khăn</t>
-  </si>
-  <si>
-    <t>Cơ tài</t>
-  </si>
-  <si>
     <t>機材</t>
   </si>
   <si>
@@ -31438,9 +31237,6 @@
     <t>Kiến thức nghe lỏm, học vẹt</t>
   </si>
   <si>
-    <t>Nhất thân thượng</t>
-  </si>
-  <si>
     <t>一身上</t>
   </si>
   <si>
@@ -31468,9 +31264,6 @@
     <t>あべこべ</t>
   </si>
   <si>
-    <t>Ngược lại, trái ngược</t>
-  </si>
-  <si>
     <t>もろに</t>
   </si>
   <si>
@@ -31498,9 +31291,6 @@
     <t>まった</t>
   </si>
   <si>
-    <t>Đã múa, bay lượn</t>
-  </si>
-  <si>
     <t>Xua tan, làm khuây khỏa</t>
   </si>
   <si>
@@ -31510,9 +31300,6 @@
     <t>めいろう</t>
   </si>
   <si>
-    <t>Minh bạch, vui tươi</t>
-  </si>
-  <si>
     <t>織った</t>
   </si>
   <si>
@@ -31546,23 +31333,1526 @@
     <t>Ớn lạnh, rùng mình</t>
   </si>
   <si>
-    <t>Tiến hành phương hướng</t>
-  </si>
-  <si>
     <t>進行方向</t>
   </si>
   <si>
     <t>しんこうほうこう</t>
   </si>
   <si>
-    <t>Hướng di chuyển, hướng tiến</t>
+    <r>
+      <t>貧弱 (bần như</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sự phản đối của cư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>（Giả sử, như</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thể）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Như</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thể, giống nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Rơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i, giảm sút, phai màu, nhạt màu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Như</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng bộ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Như</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng bộ, nh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng nhịn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tình ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời, tính nhân văn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trung thươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nhân tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời đàn ông có khuôn mặt...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đạt đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc ý nguyện, mục đích ban đầu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Không thươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng hại, không tỏ lòng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cấp thành trư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tăng trư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng nhanh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trong tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Số lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng lớn, nhiều</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sảng khoái, tươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i mới</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xem thư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng, coi nhẹ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng mộ, yêu mến</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hạ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bản thảo đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc đăng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vật tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cứu trợ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nguyên thủ (ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời đứng đầu cũ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng dục phí</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Phí nuôi dư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Miễn cư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng gia</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời chăm học</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đi đến, đến nơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i (công tác)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n hẳn, v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt bậc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tóm tắt, tóm lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khái lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đại khái, tóm lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giọt nư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bồi thư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Không thể lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớc đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời thiên về hành động</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hòa nhã, dịu dàng, thư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thái</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xem nhẹ, coi thư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đạt đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc, thu đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Liên tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tràn đầy sinh lực, tràn đầy năng lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đặc trư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng của mùa, điều tiêu biểu cho mùa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc thấm thía, thực sự hiểu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lập kế hoạch, mư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u đồ, tính toán</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mỉm cư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chạy ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc chạy xuôi, nỗ lực</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bị cảm động, ấn tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng mạnh</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đóng tàu (tàu đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc đóng)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng bản nhân</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thủ phạm chính, kẻ chủ mư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản khái niệm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khái niệm cơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bản</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt trội, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n hẳn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tác</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng vị, phong vị, sắc thái</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giáo sư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nổi tiếng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đồng ý với phươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng án</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đại khái, sơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ỡng lự, do dự, ngập ngừng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nhìn lại, hồi tư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ởng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thiên đư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng, cực lạc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ờng ngủ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời giữ, ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ời sở hữu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợt qua khó khăn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cơ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tài</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nhất thân thư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ngư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc lại, trái ng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợc</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đã múa, bay lư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ợn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Minh bạch, vui tươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tiến hành phươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng di chuyển, h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ớng tiến</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31622,6 +32912,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -31657,7 +32955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -31676,11 +32974,104 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -31860,40 +33251,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}" name="Table1" displayName="Table1" ref="A1:D1376" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}" name="Table1" displayName="Table1" ref="A1:D1376" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:D1376" xr:uid="{52861EC1-302C-4E47-BFDB-193C1563BDC5}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{53BB1968-B125-4FE7-8BDD-B1156C388E95}" name="Column1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1D0773FB-B94D-4F7A-A9BE-694BD8798C43}" name="Column2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{B510E601-40E9-41C6-9B9D-95DCB2D1BD20}" name="Column3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F56608D4-B3A2-45CD-B3BD-7FEFD57E19C9}" name="Column4" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{53BB1968-B125-4FE7-8BDD-B1156C388E95}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{1D0773FB-B94D-4F7A-A9BE-694BD8798C43}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B510E601-40E9-41C6-9B9D-95DCB2D1BD20}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{F56608D4-B3A2-45CD-B3BD-7FEFD57E19C9}" name="Column4" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D8DC8B8-EFB8-4FD1-B5B1-25675D7E27AA}" name="Table2" displayName="Table2" ref="A1:E199" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D8DC8B8-EFB8-4FD1-B5B1-25675D7E27AA}" name="Table2" displayName="Table2" ref="A1:E199" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:E199" xr:uid="{0D8DC8B8-EFB8-4FD1-B5B1-25675D7E27AA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{441B3F97-56F7-43B8-BC06-60D8EBC42FC7}" name="Column1"/>
-    <tableColumn id="2" xr3:uid="{1AB81FA7-C649-47D7-99FF-10E91F0E463D}" name="Column2"/>
-    <tableColumn id="3" xr3:uid="{E7E71EC9-8877-4D91-AD59-8184C919500D}" name="Column3"/>
-    <tableColumn id="4" xr3:uid="{7370FF60-FDB5-4DD2-B87B-C77F762DAD36}" name="Column4"/>
-    <tableColumn id="5" xr3:uid="{AEB17CC1-7CA4-444E-AB68-5482AD84AC08}" name="Column5"/>
+    <tableColumn id="1" xr3:uid="{441B3F97-56F7-43B8-BC06-60D8EBC42FC7}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{1AB81FA7-C649-47D7-99FF-10E91F0E463D}" name="Column2" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E7E71EC9-8877-4D91-AD59-8184C919500D}" name="Column3" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7370FF60-FDB5-4DD2-B87B-C77F762DAD36}" name="Column4" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AEB17CC1-7CA4-444E-AB68-5482AD84AC08}" name="Column5" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18B2F208-8BE1-429A-BA1F-81A82A32E6AE}" name="Table3" displayName="Table3" ref="A1:D121" totalsRowShown="0" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{18B2F208-8BE1-429A-BA1F-81A82A32E6AE}" name="Table3" displayName="Table3" ref="A1:D121" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A1:D121" xr:uid="{18B2F208-8BE1-429A-BA1F-81A82A32E6AE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{650F4764-56D4-473B-A37D-DA8ED4D08608}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{8815BEB1-D7D7-4B3A-B154-A78448F6D4F7}" name="Column2" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DF97C018-3D6C-4663-9910-5003532395F3}" name="Column3" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8B03BF69-0374-4AE2-98FA-4E1FDBACA3D4}" name="Column4" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{650F4764-56D4-473B-A37D-DA8ED4D08608}" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{8815BEB1-D7D7-4B3A-B154-A78448F6D4F7}" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DF97C018-3D6C-4663-9910-5003532395F3}" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8B03BF69-0374-4AE2-98FA-4E1FDBACA3D4}" name="Column4" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -51472,8 +52863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67453CAE-3B44-4350-AAB8-8BE85D3A4CAF}">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -51499,2621 +52890,2872 @@
         <v>267</v>
       </c>
       <c r="E1" t="s">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5754</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>6314</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>5766</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5767</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>5770</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>5774</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5775</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>5778</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5779</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>5782</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5783</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>5786</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5795</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>5802</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5804</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6315</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>6316</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6317</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5807</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5811</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6318</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>5815</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>5816</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5817</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5818</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5821</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5822</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>6319</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>5824</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5741</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>5743</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5744</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5745</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5747</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5748</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5749</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5751</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5752</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5753</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>5755</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5756</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5757</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>5759</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5760</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5761</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>5763</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5764</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5765</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>5767</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5768</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5769</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5770</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>5771</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5772</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5773</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5774</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>5775</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5776</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5777</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5778</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>5779</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5780</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5781</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5782</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>5783</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5784</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5785</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>5787</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5788</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5789</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>5791</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5792</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5793</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>5795</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5796</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5797</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>5799</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5800</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5801</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>5803</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5804</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5805</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5806</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>5807</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5808</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5808</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5809</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>5810</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5811</v>
-      </c>
-      <c r="C20" t="s">
-        <v>5812</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>5814</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5815</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5815</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5816</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>5817</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5818</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5818</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5819</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>5820</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5821</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5822</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5823</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D25" s="1" t="s">
+        <v>6320</v>
+      </c>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>3443</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>5825</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" s="1" t="s">
         <v>5826</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" s="1" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>5827</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+      <c r="B27" s="1" t="s">
         <v>5828</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C27" s="1" t="s">
         <v>5829</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D27" s="1" t="s">
         <v>5830</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>5831</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>3443</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B28" s="1" t="s">
         <v>5832</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" s="1" t="s">
         <v>5833</v>
       </c>
-      <c r="D26" t="s">
-        <v>3446</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="D28" s="1" t="s">
         <v>5834</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
         <v>5835</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B29" s="1" t="s">
         <v>5836</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C29" s="1" t="s">
         <v>5837</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+      <c r="D29" s="1" t="s">
         <v>5838</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
         <v>5839</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B30" s="1" t="s">
         <v>5840</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C30" s="1" t="s">
         <v>5841</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+      <c r="D30" s="1" t="s">
         <v>5842</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>5843</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B31" s="1" t="s">
         <v>5844</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C31" s="1" t="s">
         <v>5845</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="D31" s="1" t="s">
         <v>5846</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>5847</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B32" s="1" t="s">
         <v>5848</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C32" s="1" t="s">
         <v>5849</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+      <c r="D32" s="1" t="s">
         <v>5850</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>5851</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B33" s="1" t="s">
         <v>5852</v>
       </c>
-      <c r="D31" t="s">
+      <c r="C33" s="1" t="s">
         <v>5853</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="D33" s="1" t="s">
+        <v>6321</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>5854</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C34" s="1" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>5855</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>5856</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C35" s="1" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>5857</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>5858</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C36" s="1" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>5859</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
         <v>5860</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B37" s="1" t="s">
         <v>5861</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
+      <c r="C37" s="1" t="s">
         <v>5862</v>
       </c>
-      <c r="C34" t="s">
-        <v>5862</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D37" s="1" t="s">
         <v>5863</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
         <v>5864</v>
       </c>
-      <c r="C35" t="s">
-        <v>5864</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B38" s="1" t="s">
         <v>5865</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
+      <c r="C38" s="1" t="s">
         <v>5866</v>
       </c>
-      <c r="C36" t="s">
-        <v>5866</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D38" s="1" t="s">
         <v>5867</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>6322</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>5868</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C39" s="1" t="s">
         <v>5869</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D39" s="1" t="s">
         <v>5870</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
         <v>5871</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+      <c r="B40" s="1" t="s">
         <v>5872</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C40" s="1" t="s">
         <v>5873</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D40" s="1" t="s">
         <v>5874</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>5875</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+      <c r="C41" s="1" t="s">
         <v>5876</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D41" s="1" t="s">
         <v>5877</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
         <v>5878</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B42" s="1" t="s">
         <v>5879</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+      <c r="C42" s="1" t="s">
         <v>5880</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D42" s="1" t="s">
         <v>5881</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
         <v>5882</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B43" s="1" t="s">
         <v>5883</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
+      <c r="C43" s="1" t="s">
         <v>5884</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D43" s="1" t="s">
         <v>5885</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>6323</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>5886</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+      <c r="C44" s="1" t="s">
         <v>5887</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D44" s="1" t="s">
+        <v>6324</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
         <v>5888</v>
       </c>
-      <c r="C42" t="s">
+      <c r="B45" s="1" t="s">
         <v>5889</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C45" s="1" t="s">
         <v>5890</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+      <c r="D45" s="1" t="s">
         <v>5891</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
         <v>5892</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B46" s="1" t="s">
         <v>5893</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C46" s="1" t="s">
         <v>5894</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+      <c r="D46" s="1" t="s">
+        <v>6325</v>
+      </c>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
         <v>5895</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" s="1" t="s">
         <v>5896</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" s="1" t="s">
         <v>5897</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" s="1" t="s">
+        <v>6326</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>6327</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>5898</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+      <c r="C48" s="1" t="s">
         <v>5899</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D48" s="1" t="s">
+        <v>6328</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>6329</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>5900</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" s="1" t="s">
         <v>5901</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D49" s="1" t="s">
+        <v>6330</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>5902</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+      <c r="C50" s="1" t="s">
+        <v>5902</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>6331</v>
+      </c>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
         <v>5903</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C51" s="1" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>5904</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
         <v>5905</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C52" s="1" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>5906</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
         <v>5907</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C53" s="1" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>6332</v>
+      </c>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
         <v>5908</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C54" s="1" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6333</v>
+      </c>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
         <v>5909</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C55" s="1" t="s">
         <v>5910</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+      <c r="D55" s="1" t="s">
         <v>5911</v>
       </c>
-      <c r="B48" t="s">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>5912</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C56" s="1" t="s">
         <v>5913</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D56" s="1" t="s">
         <v>5914</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>5915</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C57" s="1" t="s">
         <v>5916</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D57" s="1" t="s">
+        <v>6334</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>6335</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>5917</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C58" s="1" t="s">
         <v>5918</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B50" t="s">
+      <c r="D58" s="1" t="s">
         <v>5919</v>
       </c>
-      <c r="C50" t="s">
-        <v>5919</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>5920</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
+      <c r="C59" s="1" t="s">
         <v>5921</v>
       </c>
-      <c r="C51" t="s">
-        <v>5921</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D59" s="1" t="s">
         <v>5922</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>5923</v>
       </c>
-      <c r="C52" t="s">
-        <v>5923</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="B60" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>5924</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
         <v>5925</v>
       </c>
-      <c r="C53" t="s">
-        <v>5925</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="B61" s="1" t="s">
         <v>5926</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
+      <c r="C61" s="1" t="s">
         <v>5927</v>
       </c>
-      <c r="C54" t="s">
-        <v>5927</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="D61" s="1" t="s">
         <v>5928</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
         <v>5929</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B62" s="1" t="s">
         <v>5930</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C62" s="1" t="s">
         <v>5931</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
+      <c r="D62" s="1" t="s">
+        <v>6336</v>
+      </c>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
         <v>5932</v>
       </c>
-      <c r="C56" t="s">
+      <c r="B63" s="1" t="s">
         <v>5933</v>
       </c>
-      <c r="D56" t="s">
+      <c r="C63" s="1" t="s">
         <v>5934</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
+      <c r="D63" s="1" t="s">
+        <v>6337</v>
+      </c>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
         <v>5935</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B64" s="1" t="s">
         <v>5936</v>
       </c>
-      <c r="D57" t="s">
+      <c r="C64" s="1" t="s">
         <v>5937</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+      <c r="D64" s="1" t="s">
         <v>5938</v>
       </c>
-      <c r="B58" t="s">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
         <v>5939</v>
       </c>
-      <c r="C58" t="s">
+      <c r="B65" s="1" t="s">
+        <v>4401</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4402</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>5940</v>
       </c>
-      <c r="D58" t="s">
+      <c r="C66" s="1" t="s">
         <v>5941</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="D66" s="1" t="s">
         <v>5942</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
         <v>5943</v>
       </c>
-      <c r="D59" t="s">
+      <c r="B67" s="1" t="s">
         <v>5944</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+      <c r="C67" s="1" t="s">
         <v>5945</v>
       </c>
-      <c r="B60" t="s">
-        <v>5609</v>
-      </c>
-      <c r="C60" t="s">
-        <v>5610</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="D67" s="1" t="s">
+        <v>6338</v>
+      </c>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
         <v>5946</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+      <c r="B68" s="1" t="s">
         <v>5947</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C68" s="1" t="s">
         <v>5948</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D68" s="1" t="s">
         <v>5949</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>5950</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+      <c r="C69" s="1" t="s">
         <v>5951</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D69" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>6339</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>5952</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C70" s="1" t="s">
         <v>5953</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D70" s="1" t="s">
+        <v>6340</v>
+      </c>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
         <v>5954</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+      <c r="B72" s="1" t="s">
         <v>5955</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C72" s="1" t="s">
         <v>5956</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D72" s="1" t="s">
         <v>5957</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
         <v>5958</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+      <c r="B73" s="1" t="s">
         <v>5959</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C73" s="1" t="s">
         <v>5960</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D73" s="1" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
         <v>5961</v>
       </c>
-      <c r="D64" t="s">
+      <c r="B74" s="1" t="s">
         <v>5962</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+      <c r="C74" s="1" t="s">
         <v>5963</v>
       </c>
-      <c r="B65" t="s">
-        <v>4401</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4402</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>197</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="D74" s="1" t="s">
+        <v>5961</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>5964</v>
       </c>
-      <c r="C66" t="s">
+      <c r="B75" s="1" t="s">
         <v>5965</v>
       </c>
-      <c r="D66" t="s">
+      <c r="C75" s="1" t="s">
         <v>5966</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+      <c r="D75" s="1" t="s">
         <v>5967</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>6341</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>5968</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C76" s="1" t="s">
         <v>5969</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D76" s="1" t="s">
+        <v>6342</v>
+      </c>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
         <v>5970</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
+      <c r="B77" s="1" t="s">
         <v>5971</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C77" s="1" t="s">
         <v>5972</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D77" s="1" t="s">
         <v>5973</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
         <v>5974</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>2162</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="B78" s="1" t="s">
         <v>5975</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C78" s="1" t="s">
         <v>5976</v>
       </c>
-      <c r="D69" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
+      <c r="D78" s="1" t="s">
         <v>5977</v>
       </c>
-      <c r="B70" t="s">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
         <v>5978</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C79" s="1" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>5979</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
         <v>5980</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>460</v>
-      </c>
-      <c r="B71" t="s">
-        <v>461</v>
-      </c>
-      <c r="C71" t="s">
-        <v>462</v>
-      </c>
-      <c r="D71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+      <c r="C80" s="1" t="s">
+        <v>5980</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>5981</v>
       </c>
-      <c r="B72" t="s">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
         <v>5982</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C81" s="1" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>5983</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
         <v>5984</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
+      <c r="B82" s="1" t="s">
         <v>5985</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C82" s="1" t="s">
         <v>5986</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D82" s="1" t="s">
         <v>5987</v>
       </c>
-      <c r="D73" t="s">
-        <v>5985</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
         <v>5988</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C83" s="1" t="s">
+        <v>5988</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>5989</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
         <v>5990</v>
       </c>
-      <c r="D74" t="s">
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
+      <c r="B84" s="1" t="s">
         <v>5991</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C84" s="1" t="s">
         <v>5992</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D84" s="1" t="s">
         <v>5993</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
         <v>5994</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+      <c r="B85" s="1" t="s">
         <v>5995</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C85" s="1" t="s">
         <v>5996</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D85" s="1" t="s">
         <v>5997</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
         <v>5998</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
+      <c r="C86" s="1" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>5999</v>
       </c>
-      <c r="B77" t="s">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
         <v>6000</v>
       </c>
-      <c r="C77" t="s">
+      <c r="B87" s="1" t="s">
         <v>6001</v>
       </c>
-      <c r="D77" t="s">
+      <c r="C87" s="1" t="s">
         <v>6002</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
+      <c r="D87" s="1" t="s">
         <v>6003</v>
       </c>
-      <c r="B78" t="s">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
         <v>6004</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B88" s="1" t="s">
         <v>6005</v>
       </c>
-      <c r="D78" t="s">
+      <c r="C88" s="1" t="s">
         <v>6006</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B79" t="s">
+      <c r="D88" s="1" t="s">
         <v>6007</v>
       </c>
-      <c r="C79" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
         <v>6008</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
+      <c r="B89" s="1" t="s">
         <v>6009</v>
       </c>
-      <c r="C80" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C89" s="1" t="s">
         <v>6010</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B81" t="s">
+      <c r="D89" s="1" t="s">
         <v>6011</v>
       </c>
-      <c r="C81" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>6012</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
+      <c r="B90" s="1" t="s">
         <v>6013</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C90" s="1" t="s">
         <v>6014</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D90" s="1" t="s">
+        <v>6343</v>
+      </c>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
         <v>6015</v>
       </c>
-      <c r="D82" t="s">
+      <c r="B91" s="1" t="s">
         <v>6016</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
+      <c r="C91" s="1" t="s">
         <v>6017</v>
       </c>
-      <c r="C83" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="D91" s="1" t="s">
         <v>6018</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>6019</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C92" s="1" t="s">
         <v>6020</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D92" s="1" t="s">
         <v>6021</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
         <v>6022</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
+      <c r="B93" s="1" t="s">
         <v>6023</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C93" s="1" t="s">
         <v>6024</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D93" s="1" t="s">
         <v>6025</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
         <v>6026</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
+      <c r="B94" s="1" t="s">
         <v>6027</v>
       </c>
-      <c r="C86" t="s">
-        <v>6027</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C94" s="1" t="s">
         <v>6028</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+      <c r="D94" s="1" t="s">
         <v>6029</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
         <v>6030</v>
       </c>
-      <c r="C87" t="s">
+      <c r="B95" s="1" t="s">
         <v>6031</v>
       </c>
-      <c r="D87" t="s">
+      <c r="C95" s="1" t="s">
         <v>6032</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+      <c r="D95" s="1" t="s">
         <v>6033</v>
       </c>
-      <c r="B88" t="s">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
         <v>6034</v>
       </c>
-      <c r="C88" t="s">
+      <c r="B96" s="1" t="s">
         <v>6035</v>
       </c>
-      <c r="D88" t="s">
+      <c r="C96" s="1" t="s">
         <v>6036</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+      <c r="D96" s="1" t="s">
         <v>6037</v>
       </c>
-      <c r="B89" t="s">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
         <v>6038</v>
       </c>
-      <c r="C89" t="s">
+      <c r="B97" s="1" t="s">
         <v>6039</v>
       </c>
-      <c r="D89" t="s">
+      <c r="C97" s="1" t="s">
         <v>6040</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
+      <c r="D97" s="1" t="s">
         <v>6041</v>
       </c>
-      <c r="B90" t="s">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
         <v>6042</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C98" s="1" t="s">
         <v>6043</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D98" s="1" t="s">
+        <v>6344</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
         <v>6044</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
+      <c r="C99" s="1" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>6345</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
         <v>6045</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C100" s="1" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>6046</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>6047</v>
       </c>
-      <c r="D91" t="s">
+      <c r="C101" s="1" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>6347</v>
+      </c>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
         <v>6048</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B92" t="s">
+      <c r="B102" s="1" t="s">
         <v>6049</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C102" s="1" t="s">
         <v>6050</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D102" s="1" t="s">
         <v>6051</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
         <v>6052</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B103" s="1" t="s">
         <v>6053</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C103" s="1" t="s">
         <v>6054</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D103" s="1" t="s">
         <v>6055</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
         <v>6056</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>6057</v>
       </c>
-      <c r="C94" t="s">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>6058</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C105" s="1" t="s">
         <v>6059</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
+      <c r="D105" s="1" t="s">
+        <v>6348</v>
+      </c>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>6060</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C106" s="1" t="s">
         <v>6061</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D106" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
         <v>6062</v>
       </c>
-      <c r="D95" t="s">
+      <c r="B107" s="1" t="s">
         <v>6063</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
+      <c r="C107" s="1" t="s">
         <v>6064</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D107" s="1" t="s">
         <v>6065</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>6349</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>6066</v>
       </c>
-      <c r="D96" t="s">
+      <c r="C108" s="1" t="s">
         <v>6067</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
+      <c r="D108" s="1" t="s">
+        <v>6349</v>
+      </c>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
         <v>6068</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C109" s="1" t="s">
         <v>6069</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D109" s="1" t="s">
         <v>6070</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
         <v>6071</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B98" t="s">
+      <c r="B110" s="1" t="s">
         <v>6072</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C110" s="1" t="s">
         <v>6073</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D110" s="1" t="s">
+        <v>6350</v>
+      </c>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
         <v>6074</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B99" t="s">
+      <c r="B111" s="1" t="s">
         <v>6075</v>
       </c>
-      <c r="C99" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C111" s="1" t="s">
         <v>6076</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B100" t="s">
+      <c r="D111" s="1" t="s">
         <v>6077</v>
       </c>
-      <c r="C100" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>6048</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>6049</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>6078</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
         <v>6079</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B113" s="1" t="s">
         <v>6080</v>
       </c>
-      <c r="C101" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C113" s="1" t="s">
         <v>6081</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
+      <c r="D113" s="1" t="s">
+        <v>6351</v>
+      </c>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
         <v>6082</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C114" s="1" t="s">
         <v>6083</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D114" s="1" t="s">
         <v>6084</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
         <v>6085</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
+      <c r="B115" s="1" t="s">
         <v>6086</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C115" s="1" t="s">
         <v>6087</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D115" s="1" t="s">
         <v>6088</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
         <v>6089</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
+      <c r="C116" s="1" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>6090</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
         <v>6091</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C117" s="1" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>6092</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
         <v>6093</v>
       </c>
-      <c r="D105" t="s">
+      <c r="C118" s="1" t="s">
         <v>6094</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>583</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="D118" s="1" t="s">
         <v>6095</v>
       </c>
-      <c r="C106" t="s">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
         <v>6096</v>
       </c>
-      <c r="D106" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
+      <c r="B119" s="1" t="s">
         <v>6097</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C119" s="1" t="s">
         <v>6098</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D119" s="1" t="s">
+        <v>6352</v>
+      </c>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
         <v>6099</v>
       </c>
-      <c r="D107" t="s">
+      <c r="B120" s="1" t="s">
         <v>6100</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
+      <c r="C120" s="1" t="s">
         <v>6101</v>
       </c>
-      <c r="B108" t="s">
+      <c r="D120" s="1" t="s">
+        <v>6353</v>
+      </c>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5392</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>5394</v>
+      </c>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>6102</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>6103</v>
       </c>
-      <c r="D108" t="s">
-        <v>6101</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B109" t="s">
+      <c r="C123" s="1" t="s">
         <v>6104</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D123" s="1" t="s">
+        <v>6354</v>
+      </c>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
         <v>6105</v>
       </c>
-      <c r="D109" t="s">
+      <c r="B124" s="1" t="s">
         <v>6106</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
+      <c r="C124" s="1" t="s">
         <v>6107</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D124" s="1" t="s">
         <v>6108</v>
       </c>
-      <c r="C110" t="s">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
         <v>6109</v>
       </c>
-      <c r="D110" t="s">
+      <c r="B125" s="1" t="s">
         <v>6110</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
+      <c r="C125" s="1" t="s">
         <v>6111</v>
       </c>
-      <c r="B111" t="s">
+      <c r="D125" s="1" t="s">
         <v>6112</v>
       </c>
-      <c r="C111" t="s">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
         <v>6113</v>
       </c>
-      <c r="D111" t="s">
+      <c r="B126" s="1" t="s">
         <v>6114</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>6082</v>
-      </c>
-      <c r="B112" t="s">
-        <v>6083</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C126" s="1" t="s">
         <v>6115</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
+      <c r="D126" s="1" t="s">
         <v>6116</v>
       </c>
-      <c r="B113" t="s">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>6355</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>6117</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C127" s="1" t="s">
         <v>6118</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D127" s="1" t="s">
+        <v>6355</v>
+      </c>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
         <v>6119</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B114" t="s">
+      <c r="B128" s="1" t="s">
         <v>6120</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C128" s="1" t="s">
         <v>6121</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D128" s="1" t="s">
+        <v>6356</v>
+      </c>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
         <v>6122</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
+      <c r="B129" s="1" t="s">
         <v>6123</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C129" s="1" t="s">
         <v>6124</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D129" s="1" t="s">
         <v>6125</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
         <v>6126</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B116" t="s">
+      <c r="B130" s="1" t="s">
         <v>6127</v>
       </c>
-      <c r="C116" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="C130" s="1" t="s">
         <v>6128</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B117" t="s">
+      <c r="D130" s="1" t="s">
+        <v>6357</v>
+      </c>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
         <v>6129</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C131" s="1" t="s">
         <v>6129</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D131" s="1" t="s">
         <v>6130</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B118" t="s">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A132" s="1" t="s">
         <v>6131</v>
       </c>
-      <c r="C118" t="s">
+      <c r="B132" s="1" t="s">
         <v>6132</v>
       </c>
-      <c r="D118" t="s">
+      <c r="C132" s="1" t="s">
         <v>6133</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
+      <c r="D132" s="1" t="s">
         <v>6134</v>
       </c>
-      <c r="B119" t="s">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1" t="s">
         <v>6135</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C133" s="1" t="s">
         <v>6136</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D133" s="1" t="s">
         <v>6137</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
         <v>6138</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C134" s="1" t="s">
         <v>6139</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D134" s="1" t="s">
         <v>6140</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1" t="s">
         <v>6141</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>800</v>
-      </c>
-      <c r="B121" t="s">
-        <v>5392</v>
-      </c>
-      <c r="C121" t="s">
-        <v>5393</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5394</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>2610</v>
-      </c>
-      <c r="B122" t="s">
-        <v>2611</v>
-      </c>
-      <c r="C122" t="s">
-        <v>2612</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C136" s="1" t="s">
         <v>6142</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="D136" s="1" t="s">
+        <v>6358</v>
+      </c>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A137" s="1" t="s">
+        <v>5220</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>6143</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C137" s="1" t="s">
         <v>6144</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D137" s="1" t="s">
+        <v>6359</v>
+      </c>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A138" s="1" t="s">
         <v>6145</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
+      <c r="B138" s="1" t="s">
         <v>6146</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C138" s="1" t="s">
         <v>6147</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D138" s="1" t="s">
         <v>6148</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1" t="s">
         <v>6149</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
+      <c r="C139" s="1" t="s">
         <v>6150</v>
       </c>
-      <c r="B125" t="s">
+      <c r="D139" s="1" t="s">
         <v>6151</v>
       </c>
-      <c r="C125" t="s">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A140" s="1" t="s">
         <v>6152</v>
       </c>
-      <c r="D125" t="s">
+      <c r="B140" s="1" t="s">
         <v>6153</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
+      <c r="C140" s="1" t="s">
         <v>6154</v>
       </c>
-      <c r="B126" t="s">
+      <c r="D140" s="1" t="s">
         <v>6155</v>
       </c>
-      <c r="C126" t="s">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A141" s="1" t="s">
         <v>6156</v>
       </c>
-      <c r="D126" t="s">
+      <c r="B141" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>6360</v>
+      </c>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A142" s="1" t="s">
         <v>6157</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
+      <c r="B142" s="1" t="s">
         <v>6158</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C142" s="1" t="s">
         <v>6159</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D142" s="1" t="s">
         <v>6160</v>
       </c>
-      <c r="D127" t="s">
-        <v>6158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A143" s="1" t="s">
         <v>6161</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B143" s="1" t="s">
         <v>6162</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C143" s="1" t="s">
         <v>6163</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D143" s="1" t="s">
+        <v>6361</v>
+      </c>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A144" s="1" t="s">
         <v>6164</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
+      <c r="B144" s="1" t="s">
         <v>6165</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C144" s="1" t="s">
         <v>6166</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D144" s="1" t="s">
         <v>6167</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
         <v>6168</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
+      <c r="C145" s="1" t="s">
         <v>6169</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D145" s="1" t="s">
+        <v>6362</v>
+      </c>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A146" s="1" t="s">
         <v>6170</v>
       </c>
-      <c r="C130" t="s">
+      <c r="B146" s="1" t="s">
         <v>6171</v>
       </c>
-      <c r="D130" t="s">
+      <c r="C146" s="1" t="s">
         <v>6172</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B131" t="s">
+      <c r="D146" s="1" t="s">
+        <v>6363</v>
+      </c>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A147" s="1" t="s">
+        <v>6364</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>6173</v>
       </c>
-      <c r="C131" t="s">
-        <v>6173</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="C147" s="1" t="s">
         <v>6174</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
+      <c r="D147" s="1" t="s">
+        <v>6365</v>
+      </c>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A148" s="1" t="s">
         <v>6175</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B148" s="1" t="s">
         <v>6176</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C148" s="1" t="s">
         <v>6177</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D148" s="1" t="s">
         <v>6178</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B133" t="s">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
         <v>6179</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C149" s="1" t="s">
         <v>6180</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D149" s="1" t="s">
         <v>6181</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B134" t="s">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
         <v>6182</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C150" s="1" t="s">
         <v>6183</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D150" s="1" t="s">
         <v>6184</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B135" t="s">
-        <v>3395</v>
-      </c>
-      <c r="C135" t="s">
-        <v>3395</v>
-      </c>
-      <c r="D135" t="s">
-        <v>3396</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B136" t="s">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1" t="s">
         <v>6185</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C151" s="1" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>6186</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
         <v>6187</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>5220</v>
-      </c>
-      <c r="B137" t="s">
+      <c r="C152" s="1" t="s">
+        <v>6187</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>6188</v>
       </c>
-      <c r="C137" t="s">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A153" s="1" t="s">
+        <v>6366</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>6189</v>
       </c>
-      <c r="D137" t="s">
+      <c r="C153" s="1" t="s">
         <v>6190</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
+      <c r="D153" s="1" t="s">
+        <v>6367</v>
+      </c>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
         <v>6191</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C154" s="1" t="s">
+        <v>6191</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>6192</v>
       </c>
-      <c r="C138" t="s">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
         <v>6193</v>
       </c>
-      <c r="D138" t="s">
+      <c r="C155" s="1" t="s">
         <v>6194</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B139" t="s">
+      <c r="D155" s="1" t="s">
         <v>6195</v>
       </c>
-      <c r="C139" t="s">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1" t="s">
         <v>6196</v>
       </c>
-      <c r="D139" t="s">
+      <c r="C156" s="1" t="s">
         <v>6197</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
+      <c r="D156" s="1" t="s">
+        <v>6368</v>
+      </c>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
         <v>6198</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C157" s="1" t="s">
         <v>6199</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D157" s="1" t="s">
         <v>6200</v>
       </c>
-      <c r="D140" t="s">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A158" s="1" t="s">
+        <v>6369</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1878</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>6201</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A159" s="1" t="s">
         <v>6202</v>
       </c>
-      <c r="B141" t="s">
-        <v>4138</v>
-      </c>
-      <c r="C141" t="s">
-        <v>4139</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="B159" s="1" t="s">
         <v>6203</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
+      <c r="C159" s="1" t="s">
         <v>6204</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D159" s="1" t="s">
         <v>6205</v>
       </c>
-      <c r="C142" t="s">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A160" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>6370</v>
+      </c>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A161" s="1" t="s">
         <v>6206</v>
       </c>
-      <c r="D142" t="s">
+      <c r="B161" s="1" t="s">
         <v>6207</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
+      <c r="C161" s="1" t="s">
         <v>6208</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D161" s="1" t="s">
         <v>6209</v>
       </c>
-      <c r="C143" t="s">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A162" s="1" t="s">
         <v>6210</v>
       </c>
-      <c r="D143" t="s">
+      <c r="B162" s="1" t="s">
         <v>6211</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
+      <c r="C162" s="1" t="s">
         <v>6212</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D162" s="1" t="s">
+        <v>6371</v>
+      </c>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A163" s="1" t="s">
         <v>6213</v>
       </c>
-      <c r="C144" t="s">
+      <c r="B163" s="1" t="s">
         <v>6214</v>
       </c>
-      <c r="D144" t="s">
+      <c r="C163" s="1" t="s">
         <v>6215</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B145" t="s">
+      <c r="D163" s="1" t="s">
         <v>6216</v>
       </c>
-      <c r="C145" t="s">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A164" s="1" t="s">
         <v>6217</v>
       </c>
-      <c r="D145" t="s">
+      <c r="B164" s="1" t="s">
         <v>6218</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
+      <c r="C164" s="1" t="s">
         <v>6219</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D164" s="1" t="s">
         <v>6220</v>
       </c>
-      <c r="C146" t="s">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A165" s="1" t="s">
         <v>6221</v>
       </c>
-      <c r="D146" t="s">
+      <c r="B165" s="1" t="s">
         <v>6222</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
+      <c r="C165" s="1" t="s">
         <v>6223</v>
       </c>
-      <c r="B147" t="s">
+      <c r="D165" s="1" t="s">
+        <v>6372</v>
+      </c>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A166" s="1" t="s">
         <v>6224</v>
       </c>
-      <c r="C147" t="s">
+      <c r="B166" s="1" t="s">
+        <v>5515</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>5516</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>6225</v>
       </c>
-      <c r="D147" t="s">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A167" s="1" t="s">
         <v>6226</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
+      <c r="B167" s="1" t="s">
         <v>6227</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C167" s="1" t="s">
         <v>6228</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D167" s="1" t="s">
         <v>6229</v>
       </c>
-      <c r="D148" t="s">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
         <v>6230</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B149" t="s">
+      <c r="C168" s="1" t="s">
+        <v>6230</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>6373</v>
+      </c>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
         <v>6231</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C169" s="1" t="s">
+        <v>6231</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>6232</v>
       </c>
-      <c r="D149" t="s">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
         <v>6233</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B150" t="s">
+      <c r="C170" s="1" t="s">
         <v>6234</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D170" s="1" t="s">
         <v>6235</v>
       </c>
-      <c r="D150" t="s">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1" t="s">
         <v>6236</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B151" t="s">
+      <c r="C171" s="1" t="s">
+        <v>6236</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>6374</v>
+      </c>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1" t="s">
         <v>6237</v>
       </c>
-      <c r="C151" t="s">
-        <v>6237</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C172" s="1" t="s">
         <v>6238</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B152" t="s">
+      <c r="D172" s="1" t="s">
         <v>6239</v>
       </c>
-      <c r="C152" t="s">
-        <v>6239</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A173" s="1" t="s">
         <v>6240</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
+      <c r="B173" s="1" t="s">
         <v>6241</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C173" s="1" t="s">
         <v>6242</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D173" s="1" t="s">
         <v>6243</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A174" s="1" t="s">
         <v>6244</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B154" t="s">
+      <c r="B174" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>6375</v>
+      </c>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A175" s="1" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>6245</v>
       </c>
-      <c r="C154" t="s">
-        <v>6245</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="C175" s="1" t="s">
         <v>6246</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B155" t="s">
+      <c r="D175" s="1" t="s">
         <v>6247</v>
       </c>
-      <c r="C155" t="s">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A176" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>5378</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>6248</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A177" s="1" t="s">
         <v>6249</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B156" t="s">
+      <c r="B177" s="1" t="s">
         <v>6250</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C177" s="1" t="s">
         <v>6251</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D177" s="1" t="s">
         <v>6252</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B157" t="s">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A178" s="1" t="s">
         <v>6253</v>
       </c>
-      <c r="C157" t="s">
+      <c r="B178" s="1" t="s">
         <v>6254</v>
       </c>
-      <c r="D157" t="s">
+      <c r="C178" s="1" t="s">
         <v>6255</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
+      <c r="D178" s="1" t="s">
+        <v>6376</v>
+      </c>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A179" s="1" t="s">
         <v>6256</v>
       </c>
-      <c r="B158" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C158" t="s">
-        <v>1878</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="B179" s="1" t="s">
         <v>6257</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
+      <c r="C179" s="1" t="s">
         <v>6258</v>
       </c>
-      <c r="B159" t="s">
+      <c r="D179" s="1" t="s">
+        <v>6377</v>
+      </c>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A180" s="1" t="s">
         <v>6259</v>
       </c>
-      <c r="C159" t="s">
+      <c r="B180" s="1" t="s">
         <v>6260</v>
       </c>
-      <c r="D159" t="s">
+      <c r="C180" s="1" t="s">
         <v>6261</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4092</v>
-      </c>
-      <c r="C160" t="s">
-        <v>4093</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="D180" s="1" t="s">
         <v>6262</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A181" s="1" t="s">
         <v>6263</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B181" s="1" t="s">
         <v>6264</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C181" s="1" t="s">
         <v>6265</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D181" s="1" t="s">
+        <v>6378</v>
+      </c>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A182" s="1" t="s">
         <v>6266</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
+      <c r="B182" s="1" t="s">
         <v>6267</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C182" s="1" t="s">
         <v>6268</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D182" s="1" t="s">
         <v>6269</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A183" s="1" t="s">
         <v>6270</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
+      <c r="B183" s="1" t="s">
         <v>6271</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C183" s="1" t="s">
         <v>6272</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D183" s="1" t="s">
+        <v>6379</v>
+      </c>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A184" s="1" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>6273</v>
       </c>
-      <c r="D163" t="s">
+      <c r="C184" s="1" t="s">
         <v>6274</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
+      <c r="D184" s="1" t="s">
         <v>6275</v>
       </c>
-      <c r="B164" t="s">
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A185" s="1" t="s">
         <v>6276</v>
       </c>
-      <c r="C164" t="s">
+      <c r="B185" s="1" t="s">
         <v>6277</v>
       </c>
-      <c r="D164" t="s">
+      <c r="C185" s="1" t="s">
         <v>6278</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
+      <c r="D185" s="1" t="s">
         <v>6279</v>
       </c>
-      <c r="B165" t="s">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A186" s="1" t="s">
+        <v>6381</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>6280</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C186" s="1" t="s">
         <v>6281</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D186" s="1" t="s">
         <v>6282</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A187" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>6283</v>
       </c>
-      <c r="B166" t="s">
-        <v>5515</v>
-      </c>
-      <c r="C166" t="s">
-        <v>5516</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A188" s="1" t="s">
         <v>6284</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
+      <c r="B188" s="1" t="s">
         <v>6285</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C188" s="1" t="s">
         <v>6286</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D188" s="1" t="s">
         <v>6287</v>
       </c>
-      <c r="D167" t="s">
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1" t="s">
         <v>6288</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B168" t="s">
+      <c r="C189" s="1" t="s">
+        <v>6288</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>6382</v>
+      </c>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C190" s="1" t="s">
         <v>6289</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D190" s="1" t="s">
         <v>6290</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B169" t="s">
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1" t="s">
         <v>6291</v>
       </c>
-      <c r="C169" t="s">
-        <v>6291</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C191" s="1" t="s">
         <v>6292</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B170" t="s">
+      <c r="D191" s="1" t="s">
         <v>6293</v>
       </c>
-      <c r="C170" t="s">
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1" t="s">
         <v>6294</v>
       </c>
-      <c r="D170" t="s">
+      <c r="C192" s="1" t="s">
+        <v>6294</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>6295</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B171" t="s">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1" t="s">
         <v>6296</v>
       </c>
-      <c r="C171" t="s">
-        <v>6296</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C193" s="1" t="s">
         <v>6297</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B172" t="s">
+      <c r="D193" s="1" t="s">
+        <v>6383</v>
+      </c>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>6298</v>
       </c>
-      <c r="C172" t="s">
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A195" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>6299</v>
       </c>
-      <c r="D172" t="s">
+      <c r="C195" s="1" t="s">
         <v>6300</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
+      <c r="D195" s="1" t="s">
+        <v>6384</v>
+      </c>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1" t="s">
         <v>6301</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C196" s="1" t="s">
         <v>6302</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D196" s="1" t="s">
         <v>6303</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A197" s="1" t="s">
         <v>6304</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
+      <c r="B197" s="1" t="s">
         <v>6305</v>
       </c>
-      <c r="B174" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="C197" s="1" t="s">
         <v>6306</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>2166</v>
-      </c>
-      <c r="B175" t="s">
+      <c r="D197" s="1" t="s">
         <v>6307</v>
       </c>
-      <c r="C175" t="s">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A198" s="1" t="s">
         <v>6308</v>
       </c>
-      <c r="D175" t="s">
+      <c r="B198" s="1" t="s">
         <v>6309</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>5377</v>
-      </c>
-      <c r="B176" t="s">
-        <v>5378</v>
-      </c>
-      <c r="C176" t="s">
-        <v>5379</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="C198" s="1" t="s">
         <v>6310</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
+      <c r="D198" s="1" t="s">
         <v>6311</v>
       </c>
-      <c r="B177" t="s">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="A199" s="1" t="s">
+        <v>6385</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>6312</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C199" s="1" t="s">
         <v>6313</v>
       </c>
-      <c r="D177" t="s">
-        <v>6314</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>6315</v>
-      </c>
-      <c r="B178" t="s">
-        <v>6316</v>
-      </c>
-      <c r="C178" t="s">
-        <v>6317</v>
-      </c>
-      <c r="D178" t="s">
-        <v>6318</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>6319</v>
-      </c>
-      <c r="B179" t="s">
-        <v>6320</v>
-      </c>
-      <c r="C179" t="s">
-        <v>6321</v>
-      </c>
-      <c r="D179" t="s">
-        <v>6322</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>6323</v>
-      </c>
-      <c r="B180" t="s">
-        <v>6324</v>
-      </c>
-      <c r="C180" t="s">
-        <v>6325</v>
-      </c>
-      <c r="D180" t="s">
-        <v>6326</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>6327</v>
-      </c>
-      <c r="B181" t="s">
-        <v>6328</v>
-      </c>
-      <c r="C181" t="s">
-        <v>6329</v>
-      </c>
-      <c r="D181" t="s">
-        <v>6330</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>6331</v>
-      </c>
-      <c r="B182" t="s">
-        <v>6332</v>
-      </c>
-      <c r="C182" t="s">
-        <v>6333</v>
-      </c>
-      <c r="D182" t="s">
-        <v>6334</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>6335</v>
-      </c>
-      <c r="B183" t="s">
-        <v>6336</v>
-      </c>
-      <c r="C183" t="s">
-        <v>6337</v>
-      </c>
-      <c r="D183" t="s">
-        <v>6338</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
-        <v>6339</v>
-      </c>
-      <c r="B184" t="s">
-        <v>6340</v>
-      </c>
-      <c r="C184" t="s">
-        <v>6341</v>
-      </c>
-      <c r="D184" t="s">
-        <v>6342</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
-        <v>6343</v>
-      </c>
-      <c r="B185" t="s">
-        <v>6344</v>
-      </c>
-      <c r="C185" t="s">
-        <v>6345</v>
-      </c>
-      <c r="D185" t="s">
-        <v>6346</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>6347</v>
-      </c>
-      <c r="B186" t="s">
-        <v>6348</v>
-      </c>
-      <c r="C186" t="s">
-        <v>6349</v>
-      </c>
-      <c r="D186" t="s">
-        <v>6350</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
-        <v>3371</v>
-      </c>
-      <c r="B187" t="s">
-        <v>3372</v>
-      </c>
-      <c r="C187" t="s">
-        <v>3373</v>
-      </c>
-      <c r="D187" t="s">
-        <v>6351</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
-        <v>6352</v>
-      </c>
-      <c r="B188" t="s">
-        <v>6353</v>
-      </c>
-      <c r="C188" t="s">
-        <v>6354</v>
-      </c>
-      <c r="D188" t="s">
-        <v>6355</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B189" t="s">
-        <v>6356</v>
-      </c>
-      <c r="C189" t="s">
-        <v>6356</v>
-      </c>
-      <c r="D189" t="s">
-        <v>6357</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B190" t="s">
-        <v>6358</v>
-      </c>
-      <c r="C190" t="s">
-        <v>6358</v>
-      </c>
-      <c r="D190" t="s">
-        <v>6359</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B191" t="s">
-        <v>6360</v>
-      </c>
-      <c r="C191" t="s">
-        <v>6361</v>
-      </c>
-      <c r="D191" t="s">
-        <v>6362</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B192" t="s">
-        <v>6363</v>
-      </c>
-      <c r="C192" t="s">
-        <v>6363</v>
-      </c>
-      <c r="D192" t="s">
-        <v>6364</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B193" t="s">
-        <v>6365</v>
-      </c>
-      <c r="C193" t="s">
-        <v>6366</v>
-      </c>
-      <c r="D193" t="s">
-        <v>6367</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B194" t="s">
-        <v>1769</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1770</v>
-      </c>
-      <c r="D194" t="s">
-        <v>6368</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
-        <v>3167</v>
-      </c>
-      <c r="B195" t="s">
-        <v>6369</v>
-      </c>
-      <c r="C195" t="s">
-        <v>6370</v>
-      </c>
-      <c r="D195" t="s">
-        <v>6371</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B196" t="s">
-        <v>6372</v>
-      </c>
-      <c r="C196" t="s">
-        <v>6373</v>
-      </c>
-      <c r="D196" t="s">
-        <v>6374</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
-        <v>6375</v>
-      </c>
-      <c r="B197" t="s">
-        <v>6376</v>
-      </c>
-      <c r="C197" t="s">
-        <v>6377</v>
-      </c>
-      <c r="D197" t="s">
-        <v>6378</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
-        <v>6379</v>
-      </c>
-      <c r="B198" t="s">
-        <v>6380</v>
-      </c>
-      <c r="C198" t="s">
-        <v>6381</v>
-      </c>
-      <c r="D198" t="s">
-        <v>6382</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
-        <v>6383</v>
-      </c>
-      <c r="B199" t="s">
-        <v>6384</v>
-      </c>
-      <c r="C199" t="s">
-        <v>6385</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="D199" s="1" t="s">
         <v>6386</v>
       </c>
+      <c r="E199" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -54129,8 +55771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B1C290-C89A-43B7-81DA-A123B49C40BD}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -55097,7 +56739,7 @@
       <c r="A69" s="2" t="s">
         <v>5553</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>4871</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -55363,7 +57005,7 @@
       <c r="A88" s="2" t="s">
         <v>3949</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>5602</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -55447,7 +57089,7 @@
       <c r="A94" s="2" t="s">
         <v>5618</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>5619</v>
       </c>
       <c r="C94" s="2" t="s">
